--- a/BackTest/2020-01-22 BackTest MTL.xlsx
+++ b/BackTest/2020-01-22 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M310"/>
+  <dimension ref="A1:N320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4057.119</v>
       </c>
       <c r="G2" t="n">
+        <v>288.7599999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>288.7799999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1968.1019</v>
       </c>
       <c r="G3" t="n">
+        <v>288.9466666666665</v>
+      </c>
+      <c r="H3" t="n">
         <v>288.8649999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>4317.6772</v>
       </c>
       <c r="G4" t="n">
+        <v>289.1399999999998</v>
+      </c>
+      <c r="H4" t="n">
         <v>288.9399999999999</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1064.1193</v>
       </c>
       <c r="G5" t="n">
+        <v>289.3199999999998</v>
+      </c>
+      <c r="H5" t="n">
         <v>289.0149999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3387.3085</v>
       </c>
       <c r="G6" t="n">
+        <v>289.4933333333331</v>
+      </c>
+      <c r="H6" t="n">
         <v>289.0983333333332</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>4739.5</v>
       </c>
       <c r="G7" t="n">
+        <v>289.7066666666664</v>
+      </c>
+      <c r="H7" t="n">
         <v>289.1883333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>5053.1611</v>
       </c>
       <c r="G8" t="n">
+        <v>290.0199999999998</v>
+      </c>
+      <c r="H8" t="n">
         <v>289.2716666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>176.3013</v>
       </c>
       <c r="G9" t="n">
+        <v>290.3333333333331</v>
+      </c>
+      <c r="H9" t="n">
         <v>289.3549999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>348.5433</v>
       </c>
       <c r="G10" t="n">
+        <v>290.5599999999997</v>
+      </c>
+      <c r="H10" t="n">
         <v>289.4383333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>163.3</v>
       </c>
       <c r="G11" t="n">
+        <v>290.8466666666664</v>
+      </c>
+      <c r="H11" t="n">
         <v>289.5183333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1925</v>
       </c>
       <c r="G12" t="n">
+        <v>291.0066666666664</v>
+      </c>
+      <c r="H12" t="n">
         <v>289.5983333333332</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1000</v>
       </c>
       <c r="G13" t="n">
+        <v>291.1733333333331</v>
+      </c>
+      <c r="H13" t="n">
         <v>289.6799999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>2225.6279</v>
       </c>
       <c r="G14" t="n">
+        <v>291.2999999999998</v>
+      </c>
+      <c r="H14" t="n">
         <v>289.76</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>86</v>
       </c>
       <c r="G15" t="n">
+        <v>291.4533333333331</v>
+      </c>
+      <c r="H15" t="n">
         <v>289.855</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>3404.7057</v>
       </c>
       <c r="G16" t="n">
+        <v>291.6266666666664</v>
+      </c>
+      <c r="H16" t="n">
         <v>289.9383333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>3382.7064</v>
       </c>
       <c r="G17" t="n">
+        <v>291.6133333333331</v>
+      </c>
+      <c r="H17" t="n">
         <v>289.9883333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1143.376</v>
       </c>
       <c r="G18" t="n">
+        <v>291.5999999999998</v>
+      </c>
+      <c r="H18" t="n">
         <v>290.05</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1654.5053</v>
       </c>
       <c r="G19" t="n">
+        <v>291.5999999999998</v>
+      </c>
+      <c r="H19" t="n">
         <v>290.0883333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>4963.5161</v>
       </c>
       <c r="G20" t="n">
+        <v>291.5999999999998</v>
+      </c>
+      <c r="H20" t="n">
         <v>290.1100000000001</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>175.8809</v>
       </c>
       <c r="G21" t="n">
+        <v>291.6733333333332</v>
+      </c>
+      <c r="H21" t="n">
         <v>290.1583333333335</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>175</v>
       </c>
       <c r="G22" t="n">
+        <v>291.6333333333332</v>
+      </c>
+      <c r="H22" t="n">
         <v>290.1866666666668</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>204.91</v>
       </c>
       <c r="G23" t="n">
+        <v>291.6266666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>290.2116666666668</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1000</v>
       </c>
       <c r="G24" t="n">
+        <v>291.6199999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>290.2266666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>607</v>
       </c>
       <c r="G25" t="n">
+        <v>291.58</v>
+      </c>
+      <c r="H25" t="n">
         <v>290.2316666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1217</v>
       </c>
       <c r="G26" t="n">
+        <v>291.5466666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>290.2350000000001</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>810</v>
       </c>
       <c r="G27" t="n">
+        <v>291.5133333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>290.2400000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>194.762</v>
       </c>
       <c r="G28" t="n">
+        <v>291.5066666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>290.2950000000001</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>506.5349</v>
       </c>
       <c r="G29" t="n">
+        <v>291.5133333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>290.3116666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>292.9779</v>
       </c>
       <c r="G30" t="n">
+        <v>291.4666666666668</v>
+      </c>
+      <c r="H30" t="n">
         <v>290.3283333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1000</v>
       </c>
       <c r="G31" t="n">
+        <v>291.4</v>
+      </c>
+      <c r="H31" t="n">
         <v>290.3750000000001</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1000</v>
       </c>
       <c r="G32" t="n">
+        <v>291.4800000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>290.4216666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>2451.1</v>
       </c>
       <c r="G33" t="n">
+        <v>291.52</v>
+      </c>
+      <c r="H33" t="n">
         <v>290.4683333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>11</v>
       </c>
       <c r="G34" t="n">
+        <v>291.6933333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>290.5433333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>20425.80816961</v>
       </c>
       <c r="G35" t="n">
+        <v>291.9266666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>290.6033333333335</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2328.976</v>
       </c>
       <c r="G36" t="n">
+        <v>291.9266666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>290.6250000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1635.4353</v>
       </c>
       <c r="G37" t="n">
+        <v>291.9733333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>290.6816666666668</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>2531.2734</v>
       </c>
       <c r="G38" t="n">
+        <v>291.9866666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>290.7150000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>4142.6829</v>
       </c>
       <c r="G39" t="n">
+        <v>292</v>
+      </c>
+      <c r="H39" t="n">
         <v>290.7350000000002</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>14207.1752</v>
       </c>
       <c r="G40" t="n">
+        <v>292.0466666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>290.7566666666668</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>166.0768</v>
       </c>
       <c r="G41" t="n">
+        <v>292.0933333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>290.7983333333335</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>2936.6283</v>
       </c>
       <c r="G42" t="n">
+        <v>292.1</v>
+      </c>
+      <c r="H42" t="n">
         <v>290.8366666666669</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1087.9757</v>
       </c>
       <c r="G43" t="n">
+        <v>292.0799999999999</v>
+      </c>
+      <c r="H43" t="n">
         <v>290.8616666666668</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1000</v>
       </c>
       <c r="G44" t="n">
+        <v>292.0399999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>290.8850000000002</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1000</v>
       </c>
       <c r="G45" t="n">
+        <v>291.9999999999999</v>
+      </c>
+      <c r="H45" t="n">
         <v>290.9083333333336</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>254.41</v>
       </c>
       <c r="G46" t="n">
+        <v>291.9599999999999</v>
+      </c>
+      <c r="H46" t="n">
         <v>290.931666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>2310.0399</v>
       </c>
       <c r="G47" t="n">
+        <v>291.8466666666665</v>
+      </c>
+      <c r="H47" t="n">
         <v>290.9250000000002</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1172.1671</v>
       </c>
       <c r="G48" t="n">
+        <v>291.7733333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>290.9600000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>600.0399</v>
       </c>
       <c r="G49" t="n">
+        <v>291.5866666666665</v>
+      </c>
+      <c r="H49" t="n">
         <v>291.0050000000002</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>467</v>
       </c>
       <c r="G50" t="n">
+        <v>291.3333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>291.0450000000002</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1236.685</v>
       </c>
       <c r="G51" t="n">
+        <v>291.1799999999999</v>
+      </c>
+      <c r="H51" t="n">
         <v>291.0683333333336</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>3349.5606</v>
       </c>
       <c r="G52" t="n">
+        <v>291.1533333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>291.1166666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>15.17241379</v>
       </c>
       <c r="G53" t="n">
+        <v>291.2133333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>291.2116666666669</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>5000</v>
       </c>
       <c r="G54" t="n">
+        <v>291.0866666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>291.2600000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>3818.81</v>
       </c>
       <c r="G55" t="n">
+        <v>291.14</v>
+      </c>
+      <c r="H55" t="n">
         <v>291.3316666666668</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>153.0412</v>
       </c>
       <c r="G56" t="n">
+        <v>291.1266666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>291.4033333333335</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>100</v>
       </c>
       <c r="G57" t="n">
+        <v>291.1533333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>291.4433333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>5289.1729</v>
       </c>
       <c r="G58" t="n">
+        <v>291.0533333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>291.4533333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>2059.75740668</v>
       </c>
       <c r="G59" t="n">
+        <v>290.9133333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>291.4416666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>11.43004115</v>
       </c>
       <c r="G60" t="n">
+        <v>290.9266666666668</v>
+      </c>
+      <c r="H60" t="n">
         <v>291.4616666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>2498.5625</v>
       </c>
       <c r="G61" t="n">
+        <v>290.7866666666668</v>
+      </c>
+      <c r="H61" t="n">
         <v>291.4433333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>727.0996</v>
       </c>
       <c r="G62" t="n">
+        <v>290.6200000000001</v>
+      </c>
+      <c r="H62" t="n">
         <v>291.39</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1216.9513</v>
       </c>
       <c r="G63" t="n">
+        <v>290.5533333333335</v>
+      </c>
+      <c r="H63" t="n">
         <v>291.3616666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>727.0996</v>
       </c>
       <c r="G64" t="n">
+        <v>290.4933333333335</v>
+      </c>
+      <c r="H64" t="n">
         <v>291.3433333333332</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>6</v>
       </c>
       <c r="G65" t="n">
+        <v>290.5400000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>291.3499999999999</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>1933.0397</v>
       </c>
       <c r="G66" t="n">
+        <v>290.4200000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>291.2999999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>753.2578</v>
       </c>
       <c r="G67" t="n">
+        <v>290.1800000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>291.2349999999998</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>1166.4956</v>
       </c>
       <c r="G68" t="n">
+        <v>289.8466666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>291.1683333333332</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>279</v>
       </c>
       <c r="G69" t="n">
+        <v>289.7066666666668</v>
+      </c>
+      <c r="H69" t="n">
         <v>291.1033333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>300</v>
       </c>
       <c r="G70" t="n">
+        <v>289.3866666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>291.0383333333331</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>2</v>
       </c>
       <c r="G71" t="n">
+        <v>289.2666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>291.0083333333332</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>5000</v>
       </c>
       <c r="G72" t="n">
+        <v>289.0466666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>290.9533333333331</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>1086.4404</v>
       </c>
       <c r="G73" t="n">
+        <v>288.9133333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>290.8883333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>11.49310344</v>
       </c>
       <c r="G74" t="n">
+        <v>288.96</v>
+      </c>
+      <c r="H74" t="n">
         <v>290.8566666666665</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>2023.1827</v>
       </c>
       <c r="G75" t="n">
+        <v>288.74</v>
+      </c>
+      <c r="H75" t="n">
         <v>290.7833333333331</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>2.0034</v>
       </c>
       <c r="G76" t="n">
+        <v>288.6533333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>290.6999999999998</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>15.32413793</v>
       </c>
       <c r="G77" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="H77" t="n">
         <v>290.6866666666664</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1236.402</v>
       </c>
       <c r="G78" t="n">
+        <v>288.8466666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>290.6733333333331</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>4702.4869</v>
       </c>
       <c r="G79" t="n">
+        <v>288.7733333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>290.6366666666664</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>6974.0743</v>
       </c>
       <c r="G80" t="n">
+        <v>288.6</v>
+      </c>
+      <c r="H80" t="n">
         <v>290.5999999999997</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>6224.1685</v>
       </c>
       <c r="G81" t="n">
+        <v>288.5866666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>290.5283333333331</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>133.56</v>
       </c>
       <c r="G82" t="n">
+        <v>288.5666666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>290.4683333333331</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>203.67049009</v>
       </c>
       <c r="G83" t="n">
+        <v>288.5533333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>290.3999999999998</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>2242.0573968</v>
       </c>
       <c r="G84" t="n">
+        <v>288.5333333333332</v>
+      </c>
+      <c r="H84" t="n">
         <v>290.3316666666665</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>2000</v>
       </c>
       <c r="G85" t="n">
+        <v>288.4866666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>290.2649999999998</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>11.31386861</v>
       </c>
       <c r="G86" t="n">
+        <v>288.3333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>290.2049999999999</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>2914.0204</v>
       </c>
       <c r="G87" t="n">
+        <v>288.2533333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>290.1383333333332</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>7220.1102</v>
       </c>
       <c r="G88" t="n">
+        <v>288.2066666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>290.0633333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>7.2586</v>
       </c>
       <c r="G89" t="n">
+        <v>288.0466666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>289.9899999999998</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>7143.0166</v>
       </c>
       <c r="G90" t="n">
+        <v>288.0333333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>289.9249999999998</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>9929.918799999999</v>
       </c>
       <c r="G91" t="n">
+        <v>287.98</v>
+      </c>
+      <c r="H91" t="n">
         <v>289.8449999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>705.8774</v>
       </c>
       <c r="G92" t="n">
+        <v>287.7333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>289.7499999999998</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>5217.3271</v>
       </c>
       <c r="G93" t="n">
+        <v>287.4866666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>289.6649999999998</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>3344.3757</v>
       </c>
       <c r="G94" t="n">
+        <v>287.4866666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>289.5849999999998</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>458.0102</v>
       </c>
       <c r="G95" t="n">
+        <v>287.4066666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>289.4699999999997</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>7.98611111</v>
       </c>
       <c r="G96" t="n">
+        <v>287.4266666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>289.4033333333331</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>2311.9793</v>
       </c>
       <c r="G97" t="n">
+        <v>287.4800000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>289.3449999999997</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>24.4303</v>
       </c>
       <c r="G98" t="n">
+        <v>287.4333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>289.2616666666664</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>631.1507</v>
       </c>
       <c r="G99" t="n">
+        <v>287.3400000000001</v>
+      </c>
+      <c r="H99" t="n">
         <v>289.1666666666664</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>15.43055555</v>
       </c>
       <c r="G100" t="n">
+        <v>287.3866666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>289.0999999999997</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>1872.32774499</v>
       </c>
       <c r="G101" t="n">
+        <v>287.4400000000001</v>
+      </c>
+      <c r="H101" t="n">
         <v>289.0416666666664</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>3841.9358</v>
       </c>
       <c r="G102" t="n">
+        <v>287.5333333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>288.9966666666664</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>2068.3243</v>
       </c>
       <c r="G103" t="n">
+        <v>287.4866666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>288.9149999999997</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>5522.10591745</v>
       </c>
       <c r="G104" t="n">
+        <v>287.5666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>288.8716666666663</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>5327.3982</v>
       </c>
       <c r="G105" t="n">
+        <v>287.5000000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>288.7999999999996</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>9941.393</v>
       </c>
       <c r="G106" t="n">
+        <v>287.6000000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>288.7549999999996</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>15.38781163</v>
       </c>
       <c r="G107" t="n">
+        <v>287.7666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>288.7299999999996</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>7453.8013</v>
       </c>
       <c r="G108" t="n">
+        <v>287.9333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>288.7049999999996</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>924.1585</v>
       </c>
       <c r="G109" t="n">
+        <v>287.9733333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>288.6816666666663</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>7.1884</v>
       </c>
       <c r="G110" t="n">
+        <v>288.1200000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>288.6666666666663</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>126.5064</v>
       </c>
       <c r="G111" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="H111" t="n">
         <v>288.658333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>1723.9982</v>
       </c>
       <c r="G112" t="n">
+        <v>288.2533333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>288.6199999999997</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>2601.60601673</v>
       </c>
       <c r="G113" t="n">
+        <v>288.4066666666668</v>
+      </c>
+      <c r="H113" t="n">
         <v>288.5599999999996</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>54.3636</v>
       </c>
       <c r="G114" t="n">
+        <v>288.5000000000001</v>
+      </c>
+      <c r="H114" t="n">
         <v>288.5199999999996</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>2556.3046</v>
       </c>
       <c r="G115" t="n">
+        <v>288.4800000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>288.4349999999997</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>7.7777</v>
       </c>
       <c r="G116" t="n">
+        <v>288.58</v>
+      </c>
+      <c r="H116" t="n">
         <v>288.4049999999997</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>2000</v>
       </c>
       <c r="G117" t="n">
+        <v>288.66</v>
+      </c>
+      <c r="H117" t="n">
         <v>288.3733333333331</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>19476.0426</v>
       </c>
       <c r="G118" t="n">
+        <v>288.7333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>288.3349999999998</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>24.5843</v>
       </c>
       <c r="G119" t="n">
+        <v>288.68</v>
+      </c>
+      <c r="H119" t="n">
         <v>288.3133333333331</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>3899.6198</v>
       </c>
       <c r="G120" t="n">
+        <v>288.8666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>288.2849999999998</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>4.0797</v>
       </c>
       <c r="G121" t="n">
+        <v>288.9533333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>288.2966666666665</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>932.6011999999999</v>
       </c>
       <c r="G122" t="n">
+        <v>288.8666666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>288.2916666666665</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>924.1585</v>
       </c>
       <c r="G123" t="n">
+        <v>288.7799999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>288.2616666666665</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>1745.2451</v>
       </c>
       <c r="G124" t="n">
+        <v>288.7266666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>288.2399999999998</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>137.4764</v>
       </c>
       <c r="G125" t="n">
+        <v>288.6466666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>288.1933333333332</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>183.9027</v>
       </c>
       <c r="G126" t="n">
+        <v>288.5333333333332</v>
+      </c>
+      <c r="H126" t="n">
         <v>288.1866666666665</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>10000</v>
       </c>
       <c r="G127" t="n">
+        <v>288.5933333333332</v>
+      </c>
+      <c r="H127" t="n">
         <v>288.2233333333332</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>5284.3669</v>
       </c>
       <c r="G128" t="n">
+        <v>288.5733333333332</v>
+      </c>
+      <c r="H128" t="n">
         <v>288.2416666666665</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>16.6815</v>
       </c>
       <c r="G129" t="n">
+        <v>288.6399999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>288.2533333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>250</v>
       </c>
       <c r="G130" t="n">
+        <v>288.7133333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>288.2666666666665</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>15.32413793</v>
       </c>
       <c r="G131" t="n">
+        <v>288.7133333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>288.2666666666665</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>477008.5135</v>
       </c>
       <c r="G132" t="n">
+        <v>288.6199999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>288.2666666666665</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>743.6174999999999</v>
       </c>
       <c r="G133" t="n">
+        <v>288.72</v>
+      </c>
+      <c r="H133" t="n">
         <v>288.2866666666665</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>5</v>
       </c>
       <c r="G134" t="n">
+        <v>288.8866666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>288.2949999999998</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>6200</v>
       </c>
       <c r="G135" t="n">
+        <v>288.9533333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>288.3383333333332</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>21931.8055</v>
       </c>
       <c r="G136" t="n">
+        <v>289.06</v>
+      </c>
+      <c r="H136" t="n">
         <v>288.3983333333332</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>4973.4161</v>
       </c>
       <c r="G137" t="n">
+        <v>289.1733333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>288.3849999999999</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>1148.8783</v>
       </c>
       <c r="G138" t="n">
+        <v>289.4066666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>288.4016666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>11</v>
       </c>
       <c r="G139" t="n">
+        <v>289.64</v>
+      </c>
+      <c r="H139" t="n">
         <v>288.4566666666665</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>10000.64805885</v>
       </c>
       <c r="G140" t="n">
+        <v>289.8866666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>288.5149999999998</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>11</v>
       </c>
       <c r="G141" t="n">
+        <v>290.1666666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>288.5816666666665</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>11</v>
       </c>
       <c r="G142" t="n">
+        <v>290.2666666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>288.6483333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>575.15</v>
       </c>
       <c r="G143" t="n">
+        <v>290.34</v>
+      </c>
+      <c r="H143" t="n">
         <v>288.6883333333332</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>6052.9485</v>
       </c>
       <c r="G144" t="n">
+        <v>290.4266666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>288.7266666666665</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>5700</v>
       </c>
       <c r="G145" t="n">
+        <v>290.4866666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>288.7666666666665</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>8293.4612</v>
       </c>
       <c r="G146" t="n">
+        <v>290.5199999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>288.8133333333332</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>1418.0994</v>
       </c>
       <c r="G147" t="n">
+        <v>290.6533333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>288.8666666666665</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>5179.6826</v>
       </c>
       <c r="G148" t="n">
+        <v>290.7866666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>288.9316666666665</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>4092.5789</v>
       </c>
       <c r="G149" t="n">
+        <v>290.8333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>288.9916666666666</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>3216.8499</v>
       </c>
       <c r="G150" t="n">
+        <v>290.8866666666666</v>
+      </c>
+      <c r="H150" t="n">
         <v>289.0516666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>1008</v>
       </c>
       <c r="G151" t="n">
+        <v>290.8666666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>289.1199999999999</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>1060.0832</v>
       </c>
       <c r="G152" t="n">
+        <v>291.0333333333332</v>
+      </c>
+      <c r="H152" t="n">
         <v>289.2099999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>1.72</v>
       </c>
       <c r="G153" t="n">
+        <v>291.0533333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>289.2933333333332</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>1.7147</v>
       </c>
       <c r="G154" t="n">
+        <v>291.06</v>
+      </c>
+      <c r="H154" t="n">
         <v>289.3499999999999</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>257.3128</v>
       </c>
       <c r="G155" t="n">
+        <v>291.0533333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>289.4266666666665</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>216.0452</v>
       </c>
       <c r="G156" t="n">
+        <v>291.0466666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>289.4866666666665</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>5436.2472</v>
       </c>
       <c r="G157" t="n">
+        <v>291.0400000000001</v>
+      </c>
+      <c r="H157" t="n">
         <v>289.5383333333331</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>1527.2335</v>
       </c>
       <c r="G158" t="n">
+        <v>291.1533333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>289.6183333333331</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>59.9994</v>
       </c>
       <c r="G159" t="n">
+        <v>291.28</v>
+      </c>
+      <c r="H159" t="n">
         <v>289.7116666666665</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>5000</v>
       </c>
       <c r="G160" t="n">
+        <v>291.4733333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>289.7883333333331</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>31.606</v>
       </c>
       <c r="G161" t="n">
+        <v>291.5600000000001</v>
+      </c>
+      <c r="H161" t="n">
         <v>289.8433333333331</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>167.2475</v>
       </c>
       <c r="G162" t="n">
+        <v>291.6466666666668</v>
+      </c>
+      <c r="H162" t="n">
         <v>289.8949999999998</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>4594.23290973</v>
       </c>
       <c r="G163" t="n">
+        <v>291.6733333333335</v>
+      </c>
+      <c r="H163" t="n">
         <v>289.9783333333331</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>275.5526</v>
       </c>
       <c r="G164" t="n">
+        <v>291.6933333333335</v>
+      </c>
+      <c r="H164" t="n">
         <v>290.0233333333331</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>1154.6023</v>
       </c>
       <c r="G165" t="n">
+        <v>291.6800000000002</v>
+      </c>
+      <c r="H165" t="n">
         <v>290.0966666666665</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>177.3219</v>
       </c>
       <c r="G166" t="n">
+        <v>291.6933333333335</v>
+      </c>
+      <c r="H166" t="n">
         <v>290.1433333333331</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>2952.56223906</v>
       </c>
       <c r="G167" t="n">
+        <v>291.6866666666668</v>
+      </c>
+      <c r="H167" t="n">
         <v>290.1899999999998</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>1858.8245</v>
       </c>
       <c r="G168" t="n">
+        <v>291.7066666666669</v>
+      </c>
+      <c r="H168" t="n">
         <v>290.2366666666665</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>5385.8516</v>
       </c>
       <c r="G169" t="n">
+        <v>291.7066666666669</v>
+      </c>
+      <c r="H169" t="n">
         <v>290.2833333333331</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>759.5478000000001</v>
       </c>
       <c r="G170" t="n">
+        <v>291.7066666666669</v>
+      </c>
+      <c r="H170" t="n">
         <v>290.323333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>3032.7198</v>
       </c>
       <c r="G171" t="n">
+        <v>291.6400000000002</v>
+      </c>
+      <c r="H171" t="n">
         <v>290.3466666666664</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>2023.694</v>
       </c>
       <c r="G172" t="n">
+        <v>291.5666666666668</v>
+      </c>
+      <c r="H172" t="n">
         <v>290.3666666666664</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>1.8182</v>
       </c>
       <c r="G173" t="n">
+        <v>291.4866666666668</v>
+      </c>
+      <c r="H173" t="n">
         <v>290.388333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>4116.565</v>
       </c>
       <c r="G174" t="n">
+        <v>291.4000000000003</v>
+      </c>
+      <c r="H174" t="n">
         <v>290.4366666666663</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>158.5489</v>
       </c>
       <c r="G175" t="n">
+        <v>291.2600000000002</v>
+      </c>
+      <c r="H175" t="n">
         <v>290.483333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>11</v>
       </c>
       <c r="G176" t="n">
+        <v>291.2733333333335</v>
+      </c>
+      <c r="H176" t="n">
         <v>290.5166666666663</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>7144.3449</v>
       </c>
       <c r="G177" t="n">
+        <v>291.2866666666669</v>
+      </c>
+      <c r="H177" t="n">
         <v>290.5516666666663</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>13134.3863</v>
       </c>
       <c r="G178" t="n">
+        <v>291.1400000000002</v>
+      </c>
+      <c r="H178" t="n">
         <v>290.5799999999996</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>7007.1121</v>
       </c>
       <c r="G179" t="n">
+        <v>291.0333333333335</v>
+      </c>
+      <c r="H179" t="n">
         <v>290.6116666666663</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>21</v>
       </c>
       <c r="G180" t="n">
+        <v>290.8866666666668</v>
+      </c>
+      <c r="H180" t="n">
         <v>290.6016666666663</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>2</v>
       </c>
       <c r="G181" t="n">
+        <v>290.9200000000001</v>
+      </c>
+      <c r="H181" t="n">
         <v>290.6349999999996</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>180</v>
       </c>
       <c r="G182" t="n">
+        <v>290.7800000000001</v>
+      </c>
+      <c r="H182" t="n">
         <v>290.668333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>15</v>
       </c>
       <c r="G183" t="n">
+        <v>290.8000000000001</v>
+      </c>
+      <c r="H183" t="n">
         <v>290.7416666666663</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,21 @@
         <v>3727.7456</v>
       </c>
       <c r="G184" t="n">
+        <v>290.82</v>
+      </c>
+      <c r="H184" t="n">
         <v>290.8066666666663</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7407,21 @@
         <v>11</v>
       </c>
       <c r="G185" t="n">
+        <v>290.8466666666666</v>
+      </c>
+      <c r="H185" t="n">
         <v>290.873333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7445,21 @@
         <v>788.4886</v>
       </c>
       <c r="G186" t="n">
+        <v>290.9399999999999</v>
+      </c>
+      <c r="H186" t="n">
         <v>290.948333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7483,21 @@
         <v>391.1758</v>
       </c>
       <c r="G187" t="n">
+        <v>291.04</v>
+      </c>
+      <c r="H187" t="n">
         <v>290.978333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7521,21 @@
         <v>381.4629</v>
       </c>
       <c r="G188" t="n">
+        <v>291.1266666666666</v>
+      </c>
+      <c r="H188" t="n">
         <v>291.0266666666664</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7559,21 @@
         <v>1708.6409</v>
       </c>
       <c r="G189" t="n">
+        <v>291.2133333333332</v>
+      </c>
+      <c r="H189" t="n">
         <v>291.0799999999997</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7597,21 @@
         <v>3953.73639041</v>
       </c>
       <c r="G190" t="n">
+        <v>291.1733333333332</v>
+      </c>
+      <c r="H190" t="n">
         <v>291.0983333333331</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7635,21 @@
         <v>12083.7921</v>
       </c>
       <c r="G191" t="n">
+        <v>291.0333333333331</v>
+      </c>
+      <c r="H191" t="n">
         <v>291.0966666666664</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7673,21 @@
         <v>1162</v>
       </c>
       <c r="G192" t="n">
+        <v>290.8999999999998</v>
+      </c>
+      <c r="H192" t="n">
         <v>291.1216666666664</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7711,21 @@
         <v>1872.3277</v>
       </c>
       <c r="G193" t="n">
+        <v>290.9199999999998</v>
+      </c>
+      <c r="H193" t="n">
         <v>291.1299999999998</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7749,21 @@
         <v>3729.6064</v>
       </c>
       <c r="G194" t="n">
+        <v>290.9066666666665</v>
+      </c>
+      <c r="H194" t="n">
         <v>291.1166666666664</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7787,21 @@
         <v>1721.6199</v>
       </c>
       <c r="G195" t="n">
+        <v>290.9333333333332</v>
+      </c>
+      <c r="H195" t="n">
         <v>291.0966666666664</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7825,21 @@
         <v>3442.0472</v>
       </c>
       <c r="G196" t="n">
+        <v>290.7866666666665</v>
+      </c>
+      <c r="H196" t="n">
         <v>291.0666666666664</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7863,21 @@
         <v>500</v>
       </c>
       <c r="G197" t="n">
+        <v>290.7199999999999</v>
+      </c>
+      <c r="H197" t="n">
         <v>291.0549999999997</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +7901,21 @@
         <v>1565</v>
       </c>
       <c r="G198" t="n">
+        <v>290.5333333333332</v>
+      </c>
+      <c r="H198" t="n">
         <v>291.023333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +7939,21 @@
         <v>9225.1522</v>
       </c>
       <c r="G199" t="n">
+        <v>290.2933333333332</v>
+      </c>
+      <c r="H199" t="n">
         <v>290.9699999999997</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +7977,21 @@
         <v>14120.1741</v>
       </c>
       <c r="G200" t="n">
+        <v>290.0266666666666</v>
+      </c>
+      <c r="H200" t="n">
         <v>290.908333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8015,21 @@
         <v>15691.9632</v>
       </c>
       <c r="G201" t="n">
+        <v>289.7066666666666</v>
+      </c>
+      <c r="H201" t="n">
         <v>290.833333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8053,21 @@
         <v>667.3096</v>
       </c>
       <c r="G202" t="n">
+        <v>289.3733333333332</v>
+      </c>
+      <c r="H202" t="n">
         <v>290.7549999999997</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8091,21 @@
         <v>447.7012</v>
       </c>
       <c r="G203" t="n">
+        <v>289.0466666666666</v>
+      </c>
+      <c r="H203" t="n">
         <v>290.703333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8129,21 @@
         <v>2540.2669</v>
       </c>
       <c r="G204" t="n">
+        <v>288.7799999999999</v>
+      </c>
+      <c r="H204" t="n">
         <v>290.6683333333331</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8167,21 @@
         <v>22785.7406</v>
       </c>
       <c r="G205" t="n">
+        <v>288.5533333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>290.6149999999997</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8205,21 @@
         <v>11052.43772115</v>
       </c>
       <c r="G206" t="n">
+        <v>288.4133333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>290.5699999999997</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8243,21 @@
         <v>3685.7431</v>
       </c>
       <c r="G207" t="n">
+        <v>288.2666666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>290.5249999999997</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8281,21 @@
         <v>391.1758</v>
       </c>
       <c r="G208" t="n">
+        <v>288.04</v>
+      </c>
+      <c r="H208" t="n">
         <v>290.443333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8319,21 @@
         <v>23739.0128</v>
       </c>
       <c r="G209" t="n">
+        <v>287.8133333333334</v>
+      </c>
+      <c r="H209" t="n">
         <v>290.3616666666663</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8357,21 @@
         <v>2088.5512</v>
       </c>
       <c r="G210" t="n">
+        <v>287.6000000000001</v>
+      </c>
+      <c r="H210" t="n">
         <v>290.2749999999996</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8395,21 @@
         <v>500</v>
       </c>
       <c r="G211" t="n">
+        <v>287.4800000000001</v>
+      </c>
+      <c r="H211" t="n">
         <v>290.2199999999996</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8433,21 @@
         <v>61568.1697</v>
       </c>
       <c r="G212" t="n">
+        <v>287.1800000000001</v>
+      </c>
+      <c r="H212" t="n">
         <v>290.0916666666663</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8471,21 @@
         <v>35</v>
       </c>
       <c r="G213" t="n">
+        <v>287.0333333333334</v>
+      </c>
+      <c r="H213" t="n">
         <v>290.018333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8509,21 @@
         <v>11731.4631</v>
       </c>
       <c r="G214" t="n">
+        <v>286.7466666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>289.8916666666664</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8547,21 @@
         <v>299.4226</v>
       </c>
       <c r="G215" t="n">
+        <v>286.4733333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>289.7633333333331</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8585,21 @@
         <v>7038.9317</v>
       </c>
       <c r="G216" t="n">
+        <v>286.2133333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>289.6249999999998</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8623,21 @@
         <v>118.1583</v>
       </c>
       <c r="G217" t="n">
+        <v>286.0733333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>289.5133333333332</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8661,21 @@
         <v>7038.9318</v>
       </c>
       <c r="G218" t="n">
+        <v>285.84</v>
+      </c>
+      <c r="H218" t="n">
         <v>289.3749999999998</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8699,21 @@
         <v>5069</v>
       </c>
       <c r="G219" t="n">
+        <v>285.7066666666666</v>
+      </c>
+      <c r="H219" t="n">
         <v>289.2749999999998</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +8737,21 @@
         <v>15.53442879</v>
       </c>
       <c r="G220" t="n">
+        <v>285.7066666666666</v>
+      </c>
+      <c r="H220" t="n">
         <v>289.1733333333332</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +8775,21 @@
         <v>3335.5508</v>
       </c>
       <c r="G221" t="n">
+        <v>285.5199999999999</v>
+      </c>
+      <c r="H221" t="n">
         <v>289.0599999999998</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +8813,21 @@
         <v>15.53846153</v>
       </c>
       <c r="G222" t="n">
+        <v>285.3999999999999</v>
+      </c>
+      <c r="H222" t="n">
         <v>288.9633333333332</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +8851,21 @@
         <v>758.6144</v>
       </c>
       <c r="G223" t="n">
+        <v>285.4133333333332</v>
+      </c>
+      <c r="H223" t="n">
         <v>288.8783333333332</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +8889,21 @@
         <v>1935.3415</v>
       </c>
       <c r="G224" t="n">
+        <v>285.4133333333332</v>
+      </c>
+      <c r="H224" t="n">
         <v>288.7916666666666</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +8927,21 @@
         <v>12645.3139</v>
       </c>
       <c r="G225" t="n">
+        <v>285.3133333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>288.6833333333332</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +8965,21 @@
         <v>4.0001</v>
       </c>
       <c r="G226" t="n">
+        <v>285.2533333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>288.6099999999998</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9003,21 @@
         <v>300</v>
       </c>
       <c r="G227" t="n">
+        <v>285.4399999999999</v>
+      </c>
+      <c r="H227" t="n">
         <v>288.5299999999999</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9041,21 @@
         <v>43008.5559</v>
       </c>
       <c r="G228" t="n">
+        <v>285.32</v>
+      </c>
+      <c r="H228" t="n">
         <v>288.4216666666665</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9079,21 @@
         <v>5217.1705</v>
       </c>
       <c r="G229" t="n">
+        <v>285.3866666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>288.3116666666666</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9117,21 @@
         <v>7736.1555</v>
       </c>
       <c r="G230" t="n">
+        <v>285.46</v>
+      </c>
+      <c r="H230" t="n">
         <v>288.2016666666666</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9155,21 @@
         <v>47.5827</v>
       </c>
       <c r="G231" t="n">
+        <v>285.6466666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>288.1266666666666</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9193,21 @@
         <v>1983.4795</v>
       </c>
       <c r="G232" t="n">
+        <v>285.7333333333334</v>
+      </c>
+      <c r="H232" t="n">
         <v>288.0549999999999</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9231,21 @@
         <v>47.5696</v>
       </c>
       <c r="G233" t="n">
+        <v>285.9066666666668</v>
+      </c>
+      <c r="H233" t="n">
         <v>287.9799999999999</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9269,21 @@
         <v>66.8185</v>
       </c>
       <c r="G234" t="n">
+        <v>285.8533333333335</v>
+      </c>
+      <c r="H234" t="n">
         <v>287.8883333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9307,21 @@
         <v>422.7386</v>
       </c>
       <c r="G235" t="n">
+        <v>285.8400000000001</v>
+      </c>
+      <c r="H235" t="n">
         <v>287.8183333333333</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9345,21 @@
         <v>631.8161</v>
       </c>
       <c r="G236" t="n">
+        <v>285.9200000000001</v>
+      </c>
+      <c r="H236" t="n">
         <v>287.7216666666666</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,18 +9383,21 @@
         <v>39.4885</v>
       </c>
       <c r="G237" t="n">
+        <v>285.9333333333335</v>
+      </c>
+      <c r="H237" t="n">
         <v>287.6249999999999</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,18 +9421,21 @@
         <v>1805.6783</v>
       </c>
       <c r="G238" t="n">
+        <v>285.9133333333335</v>
+      </c>
+      <c r="H238" t="n">
         <v>287.5716666666666</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8743,18 +9459,21 @@
         <v>2706.274</v>
       </c>
       <c r="G239" t="n">
+        <v>285.8266666666668</v>
+      </c>
+      <c r="H239" t="n">
         <v>287.4899999999999</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8778,18 +9497,21 @@
         <v>3697.29777348</v>
       </c>
       <c r="G240" t="n">
+        <v>285.9200000000001</v>
+      </c>
+      <c r="H240" t="n">
         <v>287.4416666666666</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8813,18 +9535,21 @@
         <v>1023.9457</v>
       </c>
       <c r="G241" t="n">
+        <v>285.8266666666667</v>
+      </c>
+      <c r="H241" t="n">
         <v>287.3366666666666</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8848,18 +9573,21 @@
         <v>2300</v>
       </c>
       <c r="G242" t="n">
+        <v>285.7066666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>287.2616666666666</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8883,18 +9611,21 @@
         <v>1239.6576</v>
       </c>
       <c r="G243" t="n">
+        <v>285.7</v>
+      </c>
+      <c r="H243" t="n">
         <v>287.1466666666666</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8918,18 +9649,21 @@
         <v>10726.6545</v>
       </c>
       <c r="G244" t="n">
+        <v>285.7066666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>287.0333333333332</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,18 +9687,21 @@
         <v>1.8</v>
       </c>
       <c r="G245" t="n">
+        <v>285.8133333333334</v>
+      </c>
+      <c r="H245" t="n">
         <v>286.9433333333332</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8988,18 +9725,21 @@
         <v>1069.1033</v>
       </c>
       <c r="G246" t="n">
+        <v>285.8466666666667</v>
+      </c>
+      <c r="H246" t="n">
         <v>286.8533333333332</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,18 +9763,21 @@
         <v>15097.081</v>
       </c>
       <c r="G247" t="n">
+        <v>285.8733333333334</v>
+      </c>
+      <c r="H247" t="n">
         <v>286.7633333333332</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,18 +9801,21 @@
         <v>1501.9931</v>
       </c>
       <c r="G248" t="n">
+        <v>285.9133333333334</v>
+      </c>
+      <c r="H248" t="n">
         <v>286.6766666666664</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,18 +9839,21 @@
         <v>2322</v>
       </c>
       <c r="G249" t="n">
+        <v>286.0133333333334</v>
+      </c>
+      <c r="H249" t="n">
         <v>286.5883333333331</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9128,18 +9877,21 @@
         <v>1.8</v>
       </c>
       <c r="G250" t="n">
+        <v>286.0466666666667</v>
+      </c>
+      <c r="H250" t="n">
         <v>286.5366666666663</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9163,18 +9915,21 @@
         <v>12831.3899</v>
       </c>
       <c r="G251" t="n">
+        <v>286.1533333333334</v>
+      </c>
+      <c r="H251" t="n">
         <v>286.5016666666663</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9198,18 +9953,21 @@
         <v>24.1949</v>
       </c>
       <c r="G252" t="n">
+        <v>286.2066666666668</v>
+      </c>
+      <c r="H252" t="n">
         <v>286.4516666666663</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9233,18 +9991,21 @@
         <v>12.1017</v>
       </c>
       <c r="G253" t="n">
+        <v>286.2533333333334</v>
+      </c>
+      <c r="H253" t="n">
         <v>286.4049999999997</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,18 +10029,21 @@
         <v>10000</v>
       </c>
       <c r="G254" t="n">
+        <v>286.2866666666667</v>
+      </c>
+      <c r="H254" t="n">
         <v>286.3349999999997</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9303,18 +10067,21 @@
         <v>15.45201668</v>
       </c>
       <c r="G255" t="n">
+        <v>286.3666666666668</v>
+      </c>
+      <c r="H255" t="n">
         <v>286.2999999999996</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9338,18 +10105,21 @@
         <v>374.8673</v>
       </c>
       <c r="G256" t="n">
+        <v>286.4800000000001</v>
+      </c>
+      <c r="H256" t="n">
         <v>286.2599999999996</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,18 +10143,21 @@
         <v>1957.9737</v>
       </c>
       <c r="G257" t="n">
+        <v>286.5733333333334</v>
+      </c>
+      <c r="H257" t="n">
         <v>286.2249999999997</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9408,18 +10181,21 @@
         <v>342.5074</v>
       </c>
       <c r="G258" t="n">
+        <v>286.6666666666667</v>
+      </c>
+      <c r="H258" t="n">
         <v>286.1799999999997</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9443,18 +10219,21 @@
         <v>1998.3</v>
       </c>
       <c r="G259" t="n">
+        <v>286.7333333333334</v>
+      </c>
+      <c r="H259" t="n">
         <v>286.1433333333331</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9478,18 +10257,21 @@
         <v>767.7</v>
       </c>
       <c r="G260" t="n">
+        <v>286.7</v>
+      </c>
+      <c r="H260" t="n">
         <v>286.1116666666664</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9513,18 +10295,21 @@
         <v>35234.3979</v>
       </c>
       <c r="G261" t="n">
+        <v>286.7466666666667</v>
+      </c>
+      <c r="H261" t="n">
         <v>286.113333333333</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9548,18 +10333,21 @@
         <v>33</v>
       </c>
       <c r="G262" t="n">
+        <v>286.8266666666667</v>
+      </c>
+      <c r="H262" t="n">
         <v>286.1266666666663</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9583,18 +10371,21 @@
         <v>88</v>
       </c>
       <c r="G263" t="n">
+        <v>286.9</v>
+      </c>
+      <c r="H263" t="n">
         <v>286.1399999999996</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9618,18 +10409,21 @@
         <v>33</v>
       </c>
       <c r="G264" t="n">
+        <v>286.9866666666667</v>
+      </c>
+      <c r="H264" t="n">
         <v>286.1399999999996</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,18 +10447,21 @@
         <v>479.8449</v>
       </c>
       <c r="G265" t="n">
+        <v>287.06</v>
+      </c>
+      <c r="H265" t="n">
         <v>286.163333333333</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9688,18 +10485,21 @@
         <v>523.6404</v>
       </c>
       <c r="G266" t="n">
+        <v>287.0666666666666</v>
+      </c>
+      <c r="H266" t="n">
         <v>286.1649999999997</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9723,18 +10523,21 @@
         <v>4099.7765</v>
       </c>
       <c r="G267" t="n">
+        <v>287.1133333333333</v>
+      </c>
+      <c r="H267" t="n">
         <v>286.1633333333331</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9758,18 +10561,21 @@
         <v>324.8316</v>
       </c>
       <c r="G268" t="n">
+        <v>287.1199999999999</v>
+      </c>
+      <c r="H268" t="n">
         <v>286.1749999999998</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9793,18 +10599,21 @@
         <v>675.1684</v>
       </c>
       <c r="G269" t="n">
+        <v>287.22</v>
+      </c>
+      <c r="H269" t="n">
         <v>286.1866666666664</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9828,18 +10637,21 @@
         <v>129.0982</v>
       </c>
       <c r="G270" t="n">
+        <v>287.1799999999999</v>
+      </c>
+      <c r="H270" t="n">
         <v>286.1949999999998</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9863,18 +10675,21 @@
         <v>1518.6055</v>
       </c>
       <c r="G271" t="n">
+        <v>287.2066666666666</v>
+      </c>
+      <c r="H271" t="n">
         <v>286.1916666666664</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9898,18 +10713,21 @@
         <v>1612.6225</v>
       </c>
       <c r="G272" t="n">
+        <v>287.3133333333333</v>
+      </c>
+      <c r="H272" t="n">
         <v>286.2583333333331</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9933,18 +10751,21 @@
         <v>10137.4418</v>
       </c>
       <c r="G273" t="n">
+        <v>287.2866666666667</v>
+      </c>
+      <c r="H273" t="n">
         <v>286.2433333333331</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9968,18 +10789,21 @@
         <v>300</v>
       </c>
       <c r="G274" t="n">
+        <v>287.4066666666666</v>
+      </c>
+      <c r="H274" t="n">
         <v>286.3083333333331</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10003,18 +10827,21 @@
         <v>513.322</v>
       </c>
       <c r="G275" t="n">
+        <v>287.5199999999999</v>
+      </c>
+      <c r="H275" t="n">
         <v>286.3733333333331</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10038,18 +10865,21 @@
         <v>542.1984</v>
       </c>
       <c r="G276" t="n">
+        <v>287.54</v>
+      </c>
+      <c r="H276" t="n">
         <v>286.4449999999997</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10073,18 +10903,21 @@
         <v>6260</v>
       </c>
       <c r="G277" t="n">
+        <v>287.56</v>
+      </c>
+      <c r="H277" t="n">
         <v>286.498333333333</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10108,18 +10941,21 @@
         <v>750.3141000000001</v>
       </c>
       <c r="G278" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="H278" t="n">
         <v>286.5799999999997</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10143,18 +10979,21 @@
         <v>2354.9117</v>
       </c>
       <c r="G279" t="n">
+        <v>287.66</v>
+      </c>
+      <c r="H279" t="n">
         <v>286.628333333333</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10178,18 +11017,21 @@
         <v>696.075</v>
       </c>
       <c r="G280" t="n">
+        <v>287.72</v>
+      </c>
+      <c r="H280" t="n">
         <v>286.6666666666663</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10213,18 +11055,21 @@
         <v>3075.8682</v>
       </c>
       <c r="G281" t="n">
+        <v>287.7933333333334</v>
+      </c>
+      <c r="H281" t="n">
         <v>286.733333333333</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10248,18 +11093,21 @@
         <v>2475.0612359</v>
       </c>
       <c r="G282" t="n">
+        <v>287.8666666666667</v>
+      </c>
+      <c r="H282" t="n">
         <v>286.7799999999996</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10283,18 +11131,21 @@
         <v>4734.2087</v>
       </c>
       <c r="G283" t="n">
+        <v>287.9866666666667</v>
+      </c>
+      <c r="H283" t="n">
         <v>286.8183333333329</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
-        <v>1</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10318,18 +11169,21 @@
         <v>137.3912</v>
       </c>
       <c r="G284" t="n">
+        <v>288.1000000000001</v>
+      </c>
+      <c r="H284" t="n">
         <v>286.858333333333</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
-        <v>1</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10353,18 +11207,21 @@
         <v>4050.4233</v>
       </c>
       <c r="G285" t="n">
+        <v>288.2133333333334</v>
+      </c>
+      <c r="H285" t="n">
         <v>286.9199999999997</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
-        <v>1</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10388,18 +11245,21 @@
         <v>11</v>
       </c>
       <c r="G286" t="n">
+        <v>288.28</v>
+      </c>
+      <c r="H286" t="n">
         <v>286.948333333333</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
-        <v>1</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10423,18 +11283,21 @@
         <v>2355.147</v>
       </c>
       <c r="G287" t="n">
+        <v>288.3266666666667</v>
+      </c>
+      <c r="H287" t="n">
         <v>286.9799999999997</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
-        <v>1</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10458,18 +11321,21 @@
         <v>1119.0142</v>
       </c>
       <c r="G288" t="n">
+        <v>288.44</v>
+      </c>
+      <c r="H288" t="n">
         <v>287.023333333333</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
-        <v>1</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10493,18 +11359,21 @@
         <v>1875.8596</v>
       </c>
       <c r="G289" t="n">
+        <v>288.3466666666667</v>
+      </c>
+      <c r="H289" t="n">
         <v>287.0483333333331</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10528,18 +11397,21 @@
         <v>2809.6</v>
       </c>
       <c r="G290" t="n">
+        <v>288.34</v>
+      </c>
+      <c r="H290" t="n">
         <v>287.0933333333331</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10563,18 +11435,21 @@
         <v>189.8249</v>
       </c>
       <c r="G291" t="n">
+        <v>288.2866666666667</v>
+      </c>
+      <c r="H291" t="n">
         <v>287.1049999999997</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10598,18 +11473,25 @@
         <v>249.1462</v>
       </c>
       <c r="G292" t="n">
+        <v>288.2733333333333</v>
+      </c>
+      <c r="H292" t="n">
         <v>287.1333333333331</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="L292" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10633,18 +11515,27 @@
         <v>7011.9822</v>
       </c>
       <c r="G293" t="n">
+        <v>288.1666666666667</v>
+      </c>
+      <c r="H293" t="n">
         <v>287.1449999999998</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="L293" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10668,18 +11559,27 @@
         <v>6652.9472</v>
       </c>
       <c r="G294" t="n">
+        <v>288.0133333333333</v>
+      </c>
+      <c r="H294" t="n">
         <v>287.1683333333331</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
+      <c r="L294" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10703,18 +11603,29 @@
         <v>11774.501</v>
       </c>
       <c r="G295" t="n">
+        <v>287.84</v>
+      </c>
+      <c r="H295" t="n">
         <v>287.1666666666665</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
+        <v>1</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="L295" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10738,18 +11649,29 @@
         <v>3797.3784</v>
       </c>
       <c r="G296" t="n">
+        <v>287.6466666666666</v>
+      </c>
+      <c r="H296" t="n">
         <v>287.1649999999998</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="L296" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10773,24 +11695,29 @@
         <v>7314.8906</v>
       </c>
       <c r="G297" t="n">
+        <v>287.4733333333333</v>
+      </c>
+      <c r="H297" t="n">
         <v>287.1649999999998</v>
       </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
         <v>286.1</v>
       </c>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
+      <c r="L297" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M297" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10814,24 +11741,29 @@
         <v>9475.2659</v>
       </c>
       <c r="G298" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="H298" t="n">
         <v>287.1649999999998</v>
       </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
         <v>286.2</v>
       </c>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
+      <c r="L298" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10855,24 +11787,29 @@
         <v>16.49812019</v>
       </c>
       <c r="G299" t="n">
+        <v>287.1333333333333</v>
+      </c>
+      <c r="H299" t="n">
         <v>287.1849999999998</v>
       </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
         <v>286.2</v>
       </c>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
+      <c r="L299" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10896,24 +11833,29 @@
         <v>4448.4003</v>
       </c>
       <c r="G300" t="n">
+        <v>286.9666666666666</v>
+      </c>
+      <c r="H300" t="n">
         <v>287.1816666666664</v>
       </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
         <v>286.2</v>
       </c>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
+      <c r="L300" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10937,24 +11879,29 @@
         <v>3027.44007981</v>
       </c>
       <c r="G301" t="n">
+        <v>286.7933333333332</v>
+      </c>
+      <c r="H301" t="n">
         <v>287.1899999999998</v>
       </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
         <v>286.2</v>
       </c>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
+      <c r="L301" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10978,24 +11925,29 @@
         <v>2</v>
       </c>
       <c r="G302" t="n">
+        <v>286.7399999999999</v>
+      </c>
+      <c r="H302" t="n">
         <v>287.2383333333331</v>
       </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
         <v>286.2</v>
       </c>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
+      <c r="L302" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
+      <c r="N302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11019,22 +11971,27 @@
         <v>1943.6259</v>
       </c>
       <c r="G303" t="n">
+        <v>286.6466666666666</v>
+      </c>
+      <c r="H303" t="n">
         <v>287.2599999999998</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
+      <c r="L303" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11058,22 +12015,27 @@
         <v>8125.5285</v>
       </c>
       <c r="G304" t="n">
+        <v>286.6999999999999</v>
+      </c>
+      <c r="H304" t="n">
         <v>287.2966666666665</v>
       </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
+      <c r="L304" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
+      <c r="N304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11097,22 +12059,27 @@
         <v>442.91</v>
       </c>
       <c r="G305" t="n">
+        <v>286.6733333333333</v>
+      </c>
+      <c r="H305" t="n">
         <v>287.3083333333332</v>
       </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
+      <c r="L305" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
+      <c r="N305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11136,22 +12103,27 @@
         <v>22</v>
       </c>
       <c r="G306" t="n">
+        <v>286.86</v>
+      </c>
+      <c r="H306" t="n">
         <v>287.3583333333332</v>
       </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
+      <c r="L306" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11175,22 +12147,27 @@
         <v>744.3516</v>
       </c>
       <c r="G307" t="n">
+        <v>286.9733333333334</v>
+      </c>
+      <c r="H307" t="n">
         <v>287.4083333333331</v>
       </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
+      <c r="L307" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
+      <c r="N307" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11214,22 +12191,27 @@
         <v>33</v>
       </c>
       <c r="G308" t="n">
+        <v>287.12</v>
+      </c>
+      <c r="H308" t="n">
         <v>287.4466666666665</v>
       </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
+      <c r="L308" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
+      <c r="N308" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11253,22 +12235,27 @@
         <v>1033.6471</v>
       </c>
       <c r="G309" t="n">
+        <v>287.2466666666667</v>
+      </c>
+      <c r="H309" t="n">
         <v>287.4766666666665</v>
       </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
+      <c r="L309" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
+      <c r="N309" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11292,22 +12279,467 @@
         <v>251.8986</v>
       </c>
       <c r="G310" t="n">
+        <v>287.4733333333334</v>
+      </c>
+      <c r="H310" t="n">
         <v>287.5233333333332</v>
       </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
+      <c r="L310" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>289</v>
+      </c>
+      <c r="C311" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="D311" t="n">
+        <v>289</v>
+      </c>
+      <c r="E311" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="F311" t="n">
+        <v>5845.0924</v>
+      </c>
+      <c r="G311" t="n">
+        <v>287.6266666666667</v>
+      </c>
+      <c r="H311" t="n">
+        <v>287.5333333333332</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="C312" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="D312" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="E312" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="F312" t="n">
+        <v>11</v>
+      </c>
+      <c r="G312" t="n">
+        <v>287.8533333333334</v>
+      </c>
+      <c r="H312" t="n">
+        <v>287.5766666666665</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="C313" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="D313" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="E313" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="F313" t="n">
+        <v>7039.2458</v>
+      </c>
+      <c r="G313" t="n">
+        <v>288</v>
+      </c>
+      <c r="H313" t="n">
+        <v>287.6016666666665</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="C314" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="D314" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="E314" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="F314" t="n">
+        <v>538.4243</v>
+      </c>
+      <c r="G314" t="n">
+        <v>288.2266666666667</v>
+      </c>
+      <c r="H314" t="n">
+        <v>287.6699999999998</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="C315" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="D315" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="E315" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="F315" t="n">
+        <v>10496.0317</v>
+      </c>
+      <c r="G315" t="n">
+        <v>288.3266666666667</v>
+      </c>
+      <c r="H315" t="n">
+        <v>287.6716666666665</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="C316" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="D316" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="E316" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="F316" t="n">
+        <v>4648.5083</v>
+      </c>
+      <c r="G316" t="n">
+        <v>288.4200000000001</v>
+      </c>
+      <c r="H316" t="n">
+        <v>287.6749999999998</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="C317" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="D317" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="E317" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="F317" t="n">
+        <v>2</v>
+      </c>
+      <c r="G317" t="n">
+        <v>288.5266666666668</v>
+      </c>
+      <c r="H317" t="n">
+        <v>287.7266666666665</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="C318" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="D318" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="E318" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="F318" t="n">
+        <v>6884.3685</v>
+      </c>
+      <c r="G318" t="n">
+        <v>288.7400000000001</v>
+      </c>
+      <c r="H318" t="n">
+        <v>287.7783333333331</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="C319" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="D319" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="E319" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="F319" t="n">
+        <v>6060.8155</v>
+      </c>
+      <c r="G319" t="n">
+        <v>288.8866666666667</v>
+      </c>
+      <c r="H319" t="n">
+        <v>287.8349999999998</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="C320" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="D320" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="E320" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="F320" t="n">
+        <v>4757</v>
+      </c>
+      <c r="G320" t="n">
+        <v>289.0333333333334</v>
+      </c>
+      <c r="H320" t="n">
+        <v>287.8916666666665</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N320" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest MTL.xlsx
+++ b/BackTest/2020-01-22 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>15218.57581393</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>285.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>15218.57581393</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>15344.76771393</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -606,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -645,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>15465.79341393</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>286.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -725,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -764,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -803,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -842,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -881,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -920,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -959,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -998,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1076,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1154,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1193,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1232,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1271,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1310,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1346,19 +1210,13 @@
         <v>65785.99361829001</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>285.9</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.012838405036726</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr"/>
     </row>
@@ -1385,7 +1243,7 @@
         <v>64785.99361829001</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1418,7 +1276,7 @@
         <v>65120.11101829002</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1451,7 +1309,7 @@
         <v>65120.11101829002</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1484,7 +1342,7 @@
         <v>64597.43411829002</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1517,7 +1375,7 @@
         <v>64597.43411829002</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1550,7 +1408,7 @@
         <v>63858.64021829002</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1682,7 +1540,7 @@
         <v>61810.58321829002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1748,7 +1606,7 @@
         <v>80561.65311829002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1781,7 +1639,7 @@
         <v>79395.15751829003</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1814,7 +1672,7 @@
         <v>78998.86871829003</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1847,7 +1705,7 @@
         <v>78442.27891829003</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1880,7 +1738,7 @@
         <v>79805.25101829003</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1913,7 +1771,7 @@
         <v>79805.25101829003</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1946,7 +1804,7 @@
         <v>79805.25101829003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1979,7 +1837,7 @@
         <v>79805.25101829003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2012,7 +1870,7 @@
         <v>79807.25101829003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2045,7 +1903,7 @@
         <v>78807.25101829003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2078,7 +1936,7 @@
         <v>74852.04931829002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2111,7 +1969,7 @@
         <v>74854.04931829002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2144,7 +2002,7 @@
         <v>74856.04931829002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2177,7 +2035,7 @@
         <v>74858.04931829002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2210,7 +2068,7 @@
         <v>74637.70881829002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2243,7 +2101,7 @@
         <v>74637.70881829002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2573,7 +2431,7 @@
         <v>105075.16111829</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2837,7 +2695,7 @@
         <v>113038.66961829</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2870,7 +2728,7 @@
         <v>114038.66961829</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2903,7 +2761,7 @@
         <v>114038.66961829</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2936,7 +2794,7 @@
         <v>114124.66961829</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2969,7 +2827,7 @@
         <v>117529.37531829</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3068,7 +2926,7 @@
         <v>112492.16361829</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3134,7 +2992,7 @@
         <v>112668.04451829</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3167,7 +3025,7 @@
         <v>112493.04451829</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3200,7 +3058,7 @@
         <v>112697.95451829</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3233,7 +3091,7 @@
         <v>112697.95451829</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3266,7 +3124,7 @@
         <v>112090.95451829</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3299,7 +3157,7 @@
         <v>112090.95451829</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3332,7 +3190,7 @@
         <v>112090.95451829</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3365,7 +3223,7 @@
         <v>112285.71651829</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3398,7 +3256,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3431,7 +3289,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3464,7 +3322,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3497,7 +3355,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3530,7 +3388,7 @@
         <v>110341.15141829</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3563,7 +3421,7 @@
         <v>110352.15141829</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3596,7 +3454,7 @@
         <v>130777.9595879</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3629,7 +3487,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4058,7 +3916,7 @@
         <v>122690.2511879</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4091,7 +3949,7 @@
         <v>122223.2511879</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4124,7 +3982,7 @@
         <v>120986.5661879</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4157,7 +4015,7 @@
         <v>124336.1267879</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4190,7 +4048,7 @@
         <v>124351.29920169</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4223,7 +4081,7 @@
         <v>119351.29920169</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4256,7 +4114,7 @@
         <v>123170.10920169</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4289,7 +4147,7 @@
         <v>123017.06800169</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4322,7 +4180,7 @@
         <v>123017.06800169</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4355,7 +4213,7 @@
         <v>117727.89510169</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4388,7 +4246,7 @@
         <v>115668.13769501</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4421,7 +4279,7 @@
         <v>115679.56773616</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4454,7 +4312,7 @@
         <v>113181.00523616</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4487,7 +4345,7 @@
         <v>112453.90563616</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4520,7 +4378,7 @@
         <v>113670.85693616</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4553,7 +4411,7 @@
         <v>113670.85693616</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4586,7 +4444,7 @@
         <v>113676.85693616</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4784,7 +4642,7 @@
         <v>111611.57943616</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4817,7 +4675,7 @@
         <v>106611.57943616</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4850,7 +4708,7 @@
         <v>105525.13903616</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4883,7 +4741,7 @@
         <v>105536.6321396</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4916,7 +4774,7 @@
         <v>103513.4494396</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4949,7 +4807,7 @@
         <v>103511.4460396</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4982,7 +4840,7 @@
         <v>103526.77017753</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5015,7 +4873,7 @@
         <v>103526.77017753</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5048,7 +4906,7 @@
         <v>98824.28327753003</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5081,7 +4939,7 @@
         <v>98824.28327753003</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5114,7 +4972,7 @@
         <v>92600.11477753003</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5147,7 +5005,7 @@
         <v>92600.11477753003</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5246,7 +5104,7 @@
         <v>90600.11477753003</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5279,7 +5137,7 @@
         <v>90611.42864614003</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5312,7 +5170,7 @@
         <v>87697.40824614004</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5345,7 +5203,7 @@
         <v>87697.40824614004</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5378,7 +5236,7 @@
         <v>87704.66684614004</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5543,7 +5401,7 @@
         <v>87556.26294614005</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5576,7 +5434,7 @@
         <v>87098.25274614005</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5609,7 +5467,7 @@
         <v>87106.23885725005</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5642,7 +5500,7 @@
         <v>89418.21815725006</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5675,7 +5533,7 @@
         <v>89393.78785725005</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6401,7 +6259,7 @@
         <v>86708.25768687007</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6434,7 +6292,7 @@
         <v>86712.33738687007</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6500,7 +6358,7 @@
         <v>85779.73618687007</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6830,7 +6688,7 @@
         <v>-383959.5416751999</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6863,7 +6721,7 @@
         <v>-383954.5416751999</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7028,7 +6886,7 @@
         <v>-359636.2739751999</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7193,7 +7051,7 @@
         <v>-356263.7244163499</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7226,7 +7084,7 @@
         <v>-361963.7244163499</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7259,7 +7117,7 @@
         <v>-353670.2632163499</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7292,7 +7150,7 @@
         <v>-353670.2632163499</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7457,7 +7315,7 @@
         <v>-345221.6475163499</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7490,7 +7348,7 @@
         <v>-345223.3675163499</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7523,7 +7381,7 @@
         <v>-345221.6528163499</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7556,7 +7414,7 @@
         <v>-345221.6528163499</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7589,7 +7447,7 @@
         <v>-345221.6528163499</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7622,7 +7480,7 @@
         <v>-345221.6528163499</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7655,7 +7513,7 @@
         <v>-343694.4193163499</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7688,7 +7546,7 @@
         <v>-343634.4199163499</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7721,7 +7579,7 @@
         <v>-338634.4199163499</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7754,7 +7612,7 @@
         <v>-338666.02591635</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7985,7 +7843,7 @@
         <v>-340583.2491870199</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8018,7 +7876,7 @@
         <v>-340583.2491870199</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8051,7 +7909,7 @@
         <v>-340583.2491870199</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8084,7 +7942,7 @@
         <v>-343615.96898702</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8117,7 +7975,7 @@
         <v>-345639.66298702</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8150,7 +8008,7 @@
         <v>-345637.84478702</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8183,7 +8041,7 @@
         <v>-345637.84478702</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8216,7 +8074,7 @@
         <v>-345796.39368702</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8249,7 +8107,7 @@
         <v>-345785.39368702</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8282,7 +8140,7 @@
         <v>-345785.39368702</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9173,7 +9031,7 @@
         <v>-389788.47987743</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9305,7 +9163,7 @@
         <v>-401912.9585562801</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9338,7 +9196,7 @@
         <v>-401912.9585562801</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9371,7 +9229,7 @@
         <v>-399824.4073562801</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9437,7 +9295,7 @@
         <v>-460892.5770562801</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9470,7 +9328,7 @@
         <v>-460857.5770562801</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9701,7 +9559,7 @@
         <v>-481763.6335274901</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10889,14 +10747,10 @@
         <v>-535706.8128758003</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="J314" t="n">
-        <v>287.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
@@ -10929,1466 +10783,1236 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="C316" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="D316" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="E316" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="F316" t="n">
+        <v>342.5074</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-537664.7865758003</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="C317" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="E317" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1998.3</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-539663.0865758003</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="C318" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="E318" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="F318" t="n">
+        <v>767.7</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-539663.0865758003</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="C319" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="D319" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="E319" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="F319" t="n">
+        <v>35234.3979</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-504428.6886758003</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="C320" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="D320" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="E320" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="F320" t="n">
+        <v>33</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-504395.6886758003</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="C321" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="D321" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="E321" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="F321" t="n">
+        <v>88</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-504395.6886758003</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="C322" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="D322" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="E322" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="F322" t="n">
+        <v>33</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-504362.6886758003</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="C323" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="D323" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="E323" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="F323" t="n">
+        <v>479.8449</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-504362.6886758003</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="C324" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="D324" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="E324" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="F324" t="n">
+        <v>523.6404</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-504362.6886758003</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="C325" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="D325" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="E325" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="F325" t="n">
+        <v>4099.7765</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-508462.4651758003</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>287</v>
+      </c>
+      <c r="C326" t="n">
+        <v>287</v>
+      </c>
+      <c r="D326" t="n">
+        <v>287</v>
+      </c>
+      <c r="E326" t="n">
+        <v>287</v>
+      </c>
+      <c r="F326" t="n">
+        <v>324.8316</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-508787.2967758003</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>287</v>
+      </c>
+      <c r="C327" t="n">
+        <v>287</v>
+      </c>
+      <c r="D327" t="n">
+        <v>287</v>
+      </c>
+      <c r="E327" t="n">
+        <v>287</v>
+      </c>
+      <c r="F327" t="n">
+        <v>675.1684</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-508787.2967758003</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>287</v>
+      </c>
+      <c r="C328" t="n">
+        <v>287</v>
+      </c>
+      <c r="D328" t="n">
+        <v>287</v>
+      </c>
+      <c r="E328" t="n">
+        <v>287</v>
+      </c>
+      <c r="F328" t="n">
+        <v>129.0982</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-508787.2967758003</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="C329" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="D329" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="E329" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1518.6055</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-507268.6912758003</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>288</v>
+      </c>
+      <c r="C330" t="n">
+        <v>288</v>
+      </c>
+      <c r="D330" t="n">
+        <v>288</v>
+      </c>
+      <c r="E330" t="n">
+        <v>288</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1612.6225</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-505656.0687758003</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="C331" t="n">
+        <v>286</v>
+      </c>
+      <c r="D331" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="E331" t="n">
+        <v>286</v>
+      </c>
+      <c r="F331" t="n">
+        <v>10137.4418</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-515793.5105758003</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>286</v>
+      </c>
+      <c r="C332" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="D332" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="E332" t="n">
+        <v>286</v>
+      </c>
+      <c r="F332" t="n">
+        <v>300</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-515493.5105758003</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="C333" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="D333" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="E333" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="F333" t="n">
+        <v>513.322</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-516006.8325758003</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
         <v>287.6</v>
       </c>
-      <c r="K315" t="inlineStr">
+      <c r="C334" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="D334" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="E334" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="F334" t="n">
+        <v>542.1984</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-516549.0309758003</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="C335" t="n">
+        <v>288.1</v>
+      </c>
+      <c r="D335" t="n">
+        <v>288.1</v>
+      </c>
+      <c r="E335" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="F335" t="n">
+        <v>6260</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-510289.0309758003</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>288.1</v>
+      </c>
+      <c r="C336" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="D336" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="E336" t="n">
+        <v>288.1</v>
+      </c>
+      <c r="F336" t="n">
+        <v>750.3141000000001</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-509538.7168758003</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="C337" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="D337" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="E337" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="F337" t="n">
+        <v>2354.9117</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-507183.8051758003</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="C338" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="D338" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="E338" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="F338" t="n">
+        <v>696.075</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-507183.8051758003</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>289</v>
+      </c>
+      <c r="C339" t="n">
+        <v>289</v>
+      </c>
+      <c r="D339" t="n">
+        <v>289</v>
+      </c>
+      <c r="E339" t="n">
+        <v>289</v>
+      </c>
+      <c r="F339" t="n">
+        <v>3075.8682</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-504107.9369758003</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>289</v>
+      </c>
+      <c r="C340" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="D340" t="n">
+        <v>289.9</v>
+      </c>
+      <c r="E340" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="F340" t="n">
+        <v>2475.0612359</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-506582.9982117002</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="C341" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="D341" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="E341" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="F341" t="n">
+        <v>4734.2087</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-506582.9982117002</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="C342" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="D342" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="E342" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="F342" t="n">
+        <v>137.3912</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-506720.3894117002</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="C343" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="D343" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="E343" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="F343" t="n">
+        <v>4050.4233</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-506720.3894117002</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="C344" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="D344" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="E344" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="F344" t="n">
+        <v>11</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-506709.3894117002</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="C345" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="D345" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="E345" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="F345" t="n">
+        <v>2355.147</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-509064.5364117002</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="C346" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="D346" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="E346" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="F346" t="n">
+        <v>1119.0142</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-510183.5506117002</v>
+      </c>
+      <c r="H346" t="n">
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="J346" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="C347" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="D347" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="E347" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="F347" t="n">
+        <v>1875.8596</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-512059.4102117002</v>
+      </c>
+      <c r="H347" t="n">
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="J347" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="K347" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="C316" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="D316" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="E316" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="F316" t="n">
-        <v>342.5074</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-537664.7865758003</v>
-      </c>
-      <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="J316" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="K316" t="inlineStr">
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="C348" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="D348" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="E348" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="F348" t="n">
+        <v>2809.6</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-509249.8102117003</v>
+      </c>
+      <c r="H348" t="n">
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="J348" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="K348" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="C317" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="D317" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="E317" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="F317" t="n">
-        <v>1998.3</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-539663.0865758003</v>
-      </c>
-      <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="J317" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="C318" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="D318" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="E318" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="F318" t="n">
-        <v>767.7</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-539663.0865758003</v>
-      </c>
-      <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="J318" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K318" t="inlineStr">
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="C349" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="D349" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="E349" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="F349" t="n">
+        <v>189.8249</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-509439.6351117003</v>
+      </c>
+      <c r="H349" t="n">
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="J349" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="C350" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="D350" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="E350" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="F350" t="n">
+        <v>249.1462</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-509190.4889117003</v>
+      </c>
+      <c r="H350" t="n">
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="J350" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="K350" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="C319" t="n">
-        <v>287.3</v>
-      </c>
-      <c r="D319" t="n">
-        <v>287.3</v>
-      </c>
-      <c r="E319" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="F319" t="n">
-        <v>35234.3979</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-504428.6886758003</v>
-      </c>
-      <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="J319" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K319" t="inlineStr">
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>287</v>
+      </c>
+      <c r="C351" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="D351" t="n">
+        <v>287</v>
+      </c>
+      <c r="E351" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="F351" t="n">
+        <v>7011.9822</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-516202.4711117003</v>
+      </c>
+      <c r="H351" t="n">
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="J351" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="K351" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>287.5</v>
-      </c>
-      <c r="C320" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="D320" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="E320" t="n">
-        <v>287.5</v>
-      </c>
-      <c r="F320" t="n">
-        <v>33</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-504395.6886758003</v>
-      </c>
-      <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>287.3</v>
-      </c>
-      <c r="J320" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="C321" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="D321" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="E321" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="F321" t="n">
-        <v>88</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-504395.6886758003</v>
-      </c>
-      <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="J321" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="C322" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="D322" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="E322" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="F322" t="n">
-        <v>33</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-504362.6886758003</v>
-      </c>
-      <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="J322" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="C323" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="D323" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="E323" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="F323" t="n">
-        <v>479.8449</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-504362.6886758003</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="C324" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="D324" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="E324" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="F324" t="n">
-        <v>523.6404</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-504362.6886758003</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="C325" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="D325" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="E325" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="F325" t="n">
-        <v>4099.7765</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-508462.4651758003</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>287</v>
-      </c>
-      <c r="C326" t="n">
-        <v>287</v>
-      </c>
-      <c r="D326" t="n">
-        <v>287</v>
-      </c>
-      <c r="E326" t="n">
-        <v>287</v>
-      </c>
-      <c r="F326" t="n">
-        <v>324.8316</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-508787.2967758003</v>
-      </c>
-      <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="J326" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>287</v>
-      </c>
-      <c r="C327" t="n">
-        <v>287</v>
-      </c>
-      <c r="D327" t="n">
-        <v>287</v>
-      </c>
-      <c r="E327" t="n">
-        <v>287</v>
-      </c>
-      <c r="F327" t="n">
-        <v>675.1684</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-508787.2967758003</v>
-      </c>
-      <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>287</v>
-      </c>
-      <c r="J327" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>287</v>
-      </c>
-      <c r="C328" t="n">
-        <v>287</v>
-      </c>
-      <c r="D328" t="n">
-        <v>287</v>
-      </c>
-      <c r="E328" t="n">
-        <v>287</v>
-      </c>
-      <c r="F328" t="n">
-        <v>129.0982</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-508787.2967758003</v>
-      </c>
-      <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>287</v>
-      </c>
-      <c r="J328" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="C329" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="D329" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="E329" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="F329" t="n">
-        <v>1518.6055</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-507268.6912758003</v>
-      </c>
-      <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>287</v>
-      </c>
-      <c r="J329" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>288</v>
-      </c>
-      <c r="C330" t="n">
-        <v>288</v>
-      </c>
-      <c r="D330" t="n">
-        <v>288</v>
-      </c>
-      <c r="E330" t="n">
-        <v>288</v>
-      </c>
-      <c r="F330" t="n">
-        <v>1612.6225</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-505656.0687758003</v>
-      </c>
-      <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="J330" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="C331" t="n">
-        <v>286</v>
-      </c>
-      <c r="D331" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="E331" t="n">
-        <v>286</v>
-      </c>
-      <c r="F331" t="n">
-        <v>10137.4418</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-515793.5105758003</v>
-      </c>
-      <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>288</v>
-      </c>
-      <c r="J331" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>286</v>
-      </c>
-      <c r="C332" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="D332" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="E332" t="n">
-        <v>286</v>
-      </c>
-      <c r="F332" t="n">
-        <v>300</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-515493.5105758003</v>
-      </c>
-      <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>286</v>
-      </c>
-      <c r="J332" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="C333" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="D333" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="E333" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="F333" t="n">
-        <v>513.322</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-516006.8325758003</v>
-      </c>
-      <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="J333" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="C334" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="D334" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="E334" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="F334" t="n">
-        <v>542.1984</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-516549.0309758003</v>
-      </c>
-      <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="J334" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>287.5</v>
-      </c>
-      <c r="C335" t="n">
-        <v>288.1</v>
-      </c>
-      <c r="D335" t="n">
-        <v>288.1</v>
-      </c>
-      <c r="E335" t="n">
-        <v>287.5</v>
-      </c>
-      <c r="F335" t="n">
-        <v>6260</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-510289.0309758003</v>
-      </c>
-      <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="J335" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>288.1</v>
-      </c>
-      <c r="C336" t="n">
-        <v>288.4</v>
-      </c>
-      <c r="D336" t="n">
-        <v>288.4</v>
-      </c>
-      <c r="E336" t="n">
-        <v>288.1</v>
-      </c>
-      <c r="F336" t="n">
-        <v>750.3141000000001</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-509538.7168758003</v>
-      </c>
-      <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>288.1</v>
-      </c>
-      <c r="J336" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="C337" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="D337" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="E337" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="F337" t="n">
-        <v>2354.9117</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-507183.8051758003</v>
-      </c>
-      <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>288.4</v>
-      </c>
-      <c r="J337" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="C338" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="D338" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="E338" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="F338" t="n">
-        <v>696.075</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-507183.8051758003</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>289</v>
-      </c>
-      <c r="C339" t="n">
-        <v>289</v>
-      </c>
-      <c r="D339" t="n">
-        <v>289</v>
-      </c>
-      <c r="E339" t="n">
-        <v>289</v>
-      </c>
-      <c r="F339" t="n">
-        <v>3075.8682</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-504107.9369758003</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>289</v>
-      </c>
-      <c r="C340" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="D340" t="n">
-        <v>289.9</v>
-      </c>
-      <c r="E340" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="F340" t="n">
-        <v>2475.0612359</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-506582.9982117002</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="C341" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="D341" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="E341" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="F341" t="n">
-        <v>4734.2087</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-506582.9982117002</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="C342" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="D342" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="E342" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="F342" t="n">
-        <v>137.3912</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-506720.3894117002</v>
-      </c>
-      <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="J342" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="C343" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="D343" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="E343" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="F343" t="n">
-        <v>4050.4233</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-506720.3894117002</v>
-      </c>
-      <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="J343" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="C344" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="D344" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="E344" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="F344" t="n">
-        <v>11</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-506709.3894117002</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="C345" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="D345" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="E345" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="F345" t="n">
-        <v>2355.147</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-509064.5364117002</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="C346" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="D346" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="E346" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="F346" t="n">
-        <v>1119.0142</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-510183.5506117002</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>286.5</v>
-      </c>
-      <c r="C347" t="n">
-        <v>286.5</v>
-      </c>
-      <c r="D347" t="n">
-        <v>286.5</v>
-      </c>
-      <c r="E347" t="n">
-        <v>286.5</v>
-      </c>
-      <c r="F347" t="n">
-        <v>1875.8596</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-512059.4102117002</v>
-      </c>
-      <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="J347" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="C348" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="D348" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="E348" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="F348" t="n">
-        <v>2809.6</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-509249.8102117003</v>
-      </c>
-      <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>286.5</v>
-      </c>
-      <c r="J348" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="C349" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="D349" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="E349" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="F349" t="n">
-        <v>189.8249</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-509439.6351117003</v>
-      </c>
-      <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="J349" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="C350" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="D350" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="E350" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="F350" t="n">
-        <v>249.1462</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-509190.4889117003</v>
-      </c>
-      <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="J350" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>287</v>
-      </c>
-      <c r="C351" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="D351" t="n">
-        <v>287</v>
-      </c>
-      <c r="E351" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="F351" t="n">
-        <v>7011.9822</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-516202.4711117003</v>
-      </c>
-      <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="J351" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12417,13 +12041,13 @@
         <v>-522855.4183117003</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>286.8</v>
       </c>
       <c r="J352" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12458,13 +12082,13 @@
         <v>-534629.9193117003</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>286.5</v>
       </c>
       <c r="J353" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12499,13 +12123,13 @@
         <v>-538427.2977117003</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>286.2</v>
       </c>
       <c r="J354" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12540,13 +12164,13 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>286.1</v>
       </c>
       <c r="J355" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12581,13 +12205,13 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>286.2</v>
       </c>
       <c r="J356" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12622,13 +12246,13 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>286.2</v>
       </c>
       <c r="J357" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12663,13 +12287,13 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>286.2</v>
       </c>
       <c r="J358" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12704,13 +12328,13 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>286.2</v>
       </c>
       <c r="J359" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12745,13 +12369,13 @@
         <v>-531110.4071117003</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>286.2</v>
       </c>
       <c r="J360" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12786,11 +12410,13 @@
         <v>-533054.0330117003</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>287.9</v>
+      </c>
       <c r="J361" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12825,11 +12451,13 @@
         <v>-524928.5045117002</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>286.3</v>
+      </c>
       <c r="J362" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12864,11 +12492,13 @@
         <v>-524928.5045117002</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>287.3</v>
+      </c>
       <c r="J363" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12903,11 +12533,13 @@
         <v>-524906.5045117002</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>287.3</v>
+      </c>
       <c r="J364" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12942,11 +12574,13 @@
         <v>-524906.5045117002</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>289.6</v>
+      </c>
       <c r="J365" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12985,7 +12619,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13024,7 +12658,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13059,11 +12693,13 @@
         <v>-525721.2530117002</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>288.4</v>
+      </c>
       <c r="J368" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13098,11 +12734,13 @@
         <v>-531566.3454117002</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>289.6</v>
+      </c>
       <c r="J369" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13137,11 +12775,13 @@
         <v>-531555.3454117002</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>288.4</v>
+      </c>
       <c r="J370" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13176,11 +12816,13 @@
         <v>-538594.5912117002</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>289.6</v>
+      </c>
       <c r="J371" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13215,11 +12857,13 @@
         <v>-538056.1669117003</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>288.4</v>
+      </c>
       <c r="J372" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13258,7 +12902,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13293,11 +12937,13 @@
         <v>-553200.7069117003</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>287.7</v>
+      </c>
       <c r="J374" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13332,11 +12978,13 @@
         <v>-553198.7069117003</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>287.6</v>
+      </c>
       <c r="J375" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13375,7 +13023,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13414,7 +13062,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13453,7 +13101,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>286.4</v>
+        <v>287.7</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13466,6 +13114,6 @@
       <c r="M378" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest MTL.xlsx
+++ b/BackTest/2020-01-22 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>16194.86421393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>15569.67561393</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>22416.58111393</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>21930.89951393</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>21927.89951393</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>31385.5301582</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>37156.10631393</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>37156.10631393</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>44320.64511393</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>55169.94931393</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>59865.48901829001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>65644.42371829001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>65805.85241829001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>65785.99361829001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>64785.99361829001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>65120.11101829002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>65120.11101829002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>64597.43411829002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>64597.43411829002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>63858.64021829002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>51727.46101829002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>56084.53271829002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>61814.51871829002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>80558.65311829002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>79395.15751829003</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>78998.86871829003</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>78442.27891829003</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>79805.25101829003</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>79805.25101829003</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>79805.25101829003</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>79805.25101829003</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>79807.25101829003</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>78807.25101829003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>74852.04931829002</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>74639.70881829002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>112492.16361829</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>112668.04451829</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>112493.04451829</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>112697.95451829</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>112697.95451829</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>112090.95451829</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>112090.95451829</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>112090.95451829</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>112285.71651829</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>110341.15141829</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>110352.15141829</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>130777.9595879</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>122223.2511879</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>120986.5661879</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>124336.1267879</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>124351.29920169</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>119351.29920169</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>123170.10920169</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>123017.06800169</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>123017.06800169</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>117727.89510169</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>115668.13769501</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>115679.56773616</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>113181.00523616</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>112453.90563616</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>113670.85693616</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>113670.85693616</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>113676.85693616</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>111611.57943616</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>106611.57943616</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>105525.13903616</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>105536.6321396</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>103513.4494396</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>103511.4460396</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>103526.77017753</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>103526.77017753</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>98824.28327753003</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>98824.28327753003</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>92600.11477753003</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>92600.11477753003</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-361963.7244163499</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-348490.5806163499</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-345221.6475163499</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-345223.3675163499</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-345221.6528163499</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-345221.6528163499</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-345221.6528163499</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-345221.6528163499</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-343694.4193163499</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-343634.4199163499</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-338634.4199163499</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-338666.02591635</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-340583.2491870199</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-340583.2491870199</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-340583.2491870199</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-343615.96898702</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-345639.66298702</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-345637.84478702</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-345637.84478702</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-345796.39368702</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-345785.39368702</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-345785.39368702</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9790,10 +9790,14 @@
         <v>-499201.6867659601</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="J285" t="n">
+        <v>287.1</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
@@ -9826,8 +9830,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +9869,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9905,19 @@
         <v>-547427.4131659601</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>285</v>
+      </c>
+      <c r="J288" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9946,19 @@
         <v>-547379.8304659601</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>285</v>
+      </c>
+      <c r="J289" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +9990,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10029,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10068,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10104,19 @@
         <v>-545088.0004659601</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>285.1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10148,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10123,8 +10187,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +10226,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10262,19 @@
         <v>-548426.0905659602</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="J297" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10303,19 @@
         <v>-544728.7927924802</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>285</v>
+      </c>
+      <c r="J298" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +10347,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10386,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10422,19 @@
         <v>-548052.7384924802</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>285</v>
+      </c>
+      <c r="J301" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10463,19 @@
         <v>-537326.0839924803</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>285</v>
+      </c>
+      <c r="J302" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10504,19 @@
         <v>-537324.2839924803</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>285.1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10548,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10453,8 +10587,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10486,8 +10626,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +10665,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +10704,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +10743,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +10782,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +10821,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +10860,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +10899,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +10938,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +10977,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +11016,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +11055,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +11094,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10915,8 +11133,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10948,8 +11172,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +11211,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,13 +11247,19 @@
         <v>-504362.6886758003</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L322" t="n">
-        <v>1</v>
+        <v>0.9977864855451061</v>
       </c>
       <c r="M322" t="inlineStr"/>
     </row>
@@ -11077,7 +11319,7 @@
         <v>-504362.6886758003</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11352,7 @@
         <v>-508462.4651758003</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11385,7 @@
         <v>-508787.2967758003</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11803,14 +12045,10 @@
         <v>-510183.5506117002</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="J346" t="n">
-        <v>288.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
@@ -11840,19 +12078,11 @@
         <v>-512059.4102117002</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="J347" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11881,19 +12111,11 @@
         <v>-509249.8102117003</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>286.5</v>
-      </c>
-      <c r="J348" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11922,14 +12144,10 @@
         <v>-509439.6351117003</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="J349" t="n">
-        <v>287.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
@@ -11959,19 +12177,11 @@
         <v>-509190.4889117003</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="J350" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12000,19 +12210,11 @@
         <v>-516202.4711117003</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="J351" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12041,19 +12243,11 @@
         <v>-522855.4183117003</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="J352" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12082,19 +12276,11 @@
         <v>-534629.9193117003</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>286.5</v>
-      </c>
-      <c r="J353" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12123,19 +12309,11 @@
         <v>-538427.2977117003</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="J354" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12164,19 +12342,11 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="J355" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12205,19 +12375,11 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="J356" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12246,19 +12408,11 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="J357" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12287,19 +12441,11 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="J358" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12328,19 +12474,11 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="J359" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12369,19 +12507,11 @@
         <v>-531110.4071117003</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="J360" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12410,19 +12540,11 @@
         <v>-533054.0330117003</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="J361" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12451,19 +12573,11 @@
         <v>-524928.5045117002</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>286.3</v>
-      </c>
-      <c r="J362" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12492,19 +12606,11 @@
         <v>-524928.5045117002</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>287.3</v>
-      </c>
-      <c r="J363" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12533,19 +12639,11 @@
         <v>-524906.5045117002</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>287.3</v>
-      </c>
-      <c r="J364" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12574,19 +12672,11 @@
         <v>-524906.5045117002</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>289.6</v>
-      </c>
-      <c r="J365" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12618,14 +12708,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12657,14 +12741,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12693,19 +12771,11 @@
         <v>-525721.2530117002</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>288.4</v>
-      </c>
-      <c r="J368" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12734,19 +12804,11 @@
         <v>-531566.3454117002</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>289.6</v>
-      </c>
-      <c r="J369" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12775,19 +12837,11 @@
         <v>-531555.3454117002</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>288.4</v>
-      </c>
-      <c r="J370" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12816,19 +12870,11 @@
         <v>-538594.5912117002</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>289.6</v>
-      </c>
-      <c r="J371" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12857,19 +12903,11 @@
         <v>-538056.1669117003</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>288.4</v>
-      </c>
-      <c r="J372" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12901,14 +12939,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12937,19 +12969,11 @@
         <v>-553200.7069117003</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="J374" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12978,19 +13002,11 @@
         <v>-553198.7069117003</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="J375" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13022,14 +13038,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13061,14 +13071,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13100,20 +13104,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
       <c r="M378" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest MTL.xlsx
+++ b/BackTest/2020-01-22 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>15218.57581393</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>15465.79341393</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>15480.80991393</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>16194.86421393</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>15569.67561393</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>22416.58111393</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>21930.89951393</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>21927.89951393</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>31385.5301582</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>37156.10631393</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>37156.10631393</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>44320.64511393</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>55169.94931393</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>59865.48901829001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>65644.42371829001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>65805.85241829001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>65785.99361829001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>64785.99361829001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>65120.11101829002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>65120.11101829002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>64597.43411829002</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>64597.43411829002</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>63858.64021829002</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>51727.46101829002</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>56084.53271829002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>61814.51871829002</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>61810.58321829002</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>80558.65311829002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>80561.65311829002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>74854.04931829002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>74856.04931829002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>74858.04931829002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>74637.70881829002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>74637.70881829002</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>74639.70881829002</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>112792.25141829</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>110352.15141829</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>130777.9595879</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>128448.9835879</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>125512.3552879</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>126600.3309879</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>125600.3309879</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>125600.3309879</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>125600.3309879</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>123290.2910879</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>123290.2910879</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>119351.29920169</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>123170.10920169</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>123017.06800169</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>117727.89510169</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>115668.13769501</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-356263.7244163499</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-353670.2632163499</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-353670.2632163499</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-348490.5806163499</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -9790,14 +9790,10 @@
         <v>-499201.6867659601</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="J285" t="n">
-        <v>287.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
@@ -9830,1317 +9826,1115 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K286" t="inlineStr">
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>285.1</v>
+      </c>
+      <c r="C287" t="n">
+        <v>285</v>
+      </c>
+      <c r="D287" t="n">
+        <v>285.1</v>
+      </c>
+      <c r="E287" t="n">
+        <v>285</v>
+      </c>
+      <c r="F287" t="n">
+        <v>5217.1705</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-547427.4131659601</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>285</v>
+      </c>
+      <c r="C288" t="n">
+        <v>285</v>
+      </c>
+      <c r="D288" t="n">
+        <v>285</v>
+      </c>
+      <c r="E288" t="n">
+        <v>285</v>
+      </c>
+      <c r="F288" t="n">
+        <v>7736.1555</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-547427.4131659601</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="C289" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="D289" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="E289" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="F289" t="n">
+        <v>47.5827</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-547379.8304659601</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="C290" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="D290" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="E290" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1983.4795</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-545396.3509659601</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="C291" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="D291" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="E291" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="F291" t="n">
+        <v>47.5696</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-545443.9205659601</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>285.1</v>
+      </c>
+      <c r="C292" t="n">
+        <v>285.1</v>
+      </c>
+      <c r="D292" t="n">
+        <v>285.1</v>
+      </c>
+      <c r="E292" t="n">
+        <v>285.1</v>
+      </c>
+      <c r="F292" t="n">
+        <v>66.8185</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-545510.7390659602</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>286.3</v>
+      </c>
+      <c r="C293" t="n">
+        <v>286.3</v>
+      </c>
+      <c r="D293" t="n">
+        <v>286.3</v>
+      </c>
+      <c r="E293" t="n">
+        <v>286.3</v>
+      </c>
+      <c r="F293" t="n">
+        <v>422.7386</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-545088.0004659601</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="C294" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="D294" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="E294" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="F294" t="n">
+        <v>631.8161</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-545719.8165659602</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="C295" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="D295" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="E295" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="F295" t="n">
+        <v>39.4885</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-545719.8165659602</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="C296" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="D296" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="E296" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1805.6783</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-545719.8165659602</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>285</v>
+      </c>
+      <c r="C297" t="n">
+        <v>285</v>
+      </c>
+      <c r="D297" t="n">
+        <v>285</v>
+      </c>
+      <c r="E297" t="n">
+        <v>285</v>
+      </c>
+      <c r="F297" t="n">
+        <v>2706.274</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-548426.0905659602</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="C298" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="D298" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="E298" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="F298" t="n">
+        <v>3697.29777348</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-544728.7927924802</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>285.7</v>
+      </c>
+      <c r="C299" t="n">
+        <v>285.7</v>
+      </c>
+      <c r="D299" t="n">
+        <v>285.7</v>
+      </c>
+      <c r="E299" t="n">
+        <v>285.7</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1023.9457</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-545752.7384924802</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>285</v>
+      </c>
+      <c r="C300" t="n">
+        <v>285</v>
+      </c>
+      <c r="D300" t="n">
+        <v>285</v>
+      </c>
+      <c r="E300" t="n">
+        <v>285</v>
+      </c>
+      <c r="F300" t="n">
+        <v>2300</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-548052.7384924802</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>285</v>
+      </c>
+      <c r="C301" t="n">
+        <v>285</v>
+      </c>
+      <c r="D301" t="n">
+        <v>285</v>
+      </c>
+      <c r="E301" t="n">
+        <v>285</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1239.6576</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-548052.7384924802</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>285.2</v>
+      </c>
+      <c r="C302" t="n">
+        <v>285.1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>285.2</v>
+      </c>
+      <c r="E302" t="n">
+        <v>285.1</v>
+      </c>
+      <c r="F302" t="n">
+        <v>10726.6545</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-537326.0839924803</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="C303" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="D303" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="E303" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-537324.2839924803</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="C304" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="D304" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="E304" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1069.1033</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-537324.2839924803</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="C305" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="D305" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="E305" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="F305" t="n">
+        <v>15097.081</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-537324.2839924803</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>286.7</v>
+      </c>
+      <c r="C306" t="n">
+        <v>286.7</v>
+      </c>
+      <c r="D306" t="n">
+        <v>286.7</v>
+      </c>
+      <c r="E306" t="n">
+        <v>286.7</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1501.9931</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-535822.2908924803</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="C307" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="D307" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="E307" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2322</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-538144.2908924803</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="C308" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="D308" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="E308" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-538142.4908924802</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="C309" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="D309" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="E309" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="F309" t="n">
+        <v>12831.3899</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-525311.1009924803</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>287</v>
+      </c>
+      <c r="C310" t="n">
+        <v>287</v>
+      </c>
+      <c r="D310" t="n">
+        <v>287</v>
+      </c>
+      <c r="E310" t="n">
+        <v>287</v>
+      </c>
+      <c r="F310" t="n">
+        <v>24.1949</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-525335.2958924803</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>286.9</v>
+      </c>
+      <c r="C311" t="n">
+        <v>286.9</v>
+      </c>
+      <c r="D311" t="n">
+        <v>286.9</v>
+      </c>
+      <c r="E311" t="n">
+        <v>286.9</v>
+      </c>
+      <c r="F311" t="n">
+        <v>12.1017</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-525347.3975924803</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="C312" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="D312" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="E312" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="F312" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-535347.3975924803</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="C313" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="D313" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="E313" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="F313" t="n">
+        <v>15.45201668</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-535331.9455758003</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="C314" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="D314" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="E314" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="F314" t="n">
+        <v>374.8673</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-535706.8128758003</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="C315" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="D315" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="E315" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1957.9737</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-537664.7865758003</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="C316" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="D316" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="E316" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="F316" t="n">
+        <v>342.5074</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-537664.7865758003</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="C317" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="E317" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1998.3</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-539663.0865758003</v>
+      </c>
+      <c r="H317" t="n">
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="J317" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="C318" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="E318" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="F318" t="n">
+        <v>767.7</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-539663.0865758003</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="C319" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="D319" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="E319" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="F319" t="n">
+        <v>35234.3979</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-504428.6886758003</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="J319" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K319" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="C287" t="n">
-        <v>285</v>
-      </c>
-      <c r="D287" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="E287" t="n">
-        <v>285</v>
-      </c>
-      <c r="F287" t="n">
-        <v>5217.1705</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-547427.4131659601</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>285</v>
-      </c>
-      <c r="C288" t="n">
-        <v>285</v>
-      </c>
-      <c r="D288" t="n">
-        <v>285</v>
-      </c>
-      <c r="E288" t="n">
-        <v>285</v>
-      </c>
-      <c r="F288" t="n">
-        <v>7736.1555</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-547427.4131659601</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>285</v>
-      </c>
-      <c r="J288" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="C289" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="D289" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="E289" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="F289" t="n">
-        <v>47.5827</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-547379.8304659601</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>285</v>
-      </c>
-      <c r="J289" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="C290" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="D290" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="E290" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="F290" t="n">
-        <v>1983.4795</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-545396.3509659601</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="C291" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="D291" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="E291" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="F291" t="n">
-        <v>47.5696</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-545443.9205659601</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="C292" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="D292" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="E292" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="F292" t="n">
-        <v>66.8185</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-545510.7390659602</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>286.3</v>
-      </c>
-      <c r="C293" t="n">
-        <v>286.3</v>
-      </c>
-      <c r="D293" t="n">
-        <v>286.3</v>
-      </c>
-      <c r="E293" t="n">
-        <v>286.3</v>
-      </c>
-      <c r="F293" t="n">
-        <v>422.7386</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-545088.0004659601</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="J293" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="C294" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="D294" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="E294" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="F294" t="n">
-        <v>631.8161</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-545719.8165659602</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="C295" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="D295" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="E295" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="F295" t="n">
-        <v>39.4885</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-545719.8165659602</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="C296" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="D296" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="E296" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="F296" t="n">
-        <v>1805.6783</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-545719.8165659602</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>285</v>
-      </c>
-      <c r="C297" t="n">
-        <v>285</v>
-      </c>
-      <c r="D297" t="n">
-        <v>285</v>
-      </c>
-      <c r="E297" t="n">
-        <v>285</v>
-      </c>
-      <c r="F297" t="n">
-        <v>2706.274</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-548426.0905659602</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="J297" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="C298" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="D298" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="E298" t="n">
-        <v>286.2</v>
-      </c>
-      <c r="F298" t="n">
-        <v>3697.29777348</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-544728.7927924802</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>285</v>
-      </c>
-      <c r="J298" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="C299" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="D299" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="E299" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="F299" t="n">
-        <v>1023.9457</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-545752.7384924802</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>285</v>
-      </c>
-      <c r="C300" t="n">
-        <v>285</v>
-      </c>
-      <c r="D300" t="n">
-        <v>285</v>
-      </c>
-      <c r="E300" t="n">
-        <v>285</v>
-      </c>
-      <c r="F300" t="n">
-        <v>2300</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-548052.7384924802</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>285</v>
-      </c>
-      <c r="C301" t="n">
-        <v>285</v>
-      </c>
-      <c r="D301" t="n">
-        <v>285</v>
-      </c>
-      <c r="E301" t="n">
-        <v>285</v>
-      </c>
-      <c r="F301" t="n">
-        <v>1239.6576</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-548052.7384924802</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>285</v>
-      </c>
-      <c r="J301" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>285.2</v>
-      </c>
-      <c r="C302" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="D302" t="n">
-        <v>285.2</v>
-      </c>
-      <c r="E302" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="F302" t="n">
-        <v>10726.6545</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-537326.0839924803</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>285</v>
-      </c>
-      <c r="J302" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="C303" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="D303" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="E303" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="F303" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-537324.2839924803</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>285.1</v>
-      </c>
-      <c r="J303" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="C304" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="D304" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="E304" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="F304" t="n">
-        <v>1069.1033</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-537324.2839924803</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="C305" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="D305" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="E305" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="F305" t="n">
-        <v>15097.081</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-537324.2839924803</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>286.7</v>
-      </c>
-      <c r="C306" t="n">
-        <v>286.7</v>
-      </c>
-      <c r="D306" t="n">
-        <v>286.7</v>
-      </c>
-      <c r="E306" t="n">
-        <v>286.7</v>
-      </c>
-      <c r="F306" t="n">
-        <v>1501.9931</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-535822.2908924803</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="C307" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="D307" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="E307" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="F307" t="n">
-        <v>2322</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-538144.2908924803</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="C308" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="D308" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="E308" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="F308" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-538142.4908924802</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="C309" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="D309" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="E309" t="n">
-        <v>286.8</v>
-      </c>
-      <c r="F309" t="n">
-        <v>12831.3899</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-525311.1009924803</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>287</v>
-      </c>
-      <c r="C310" t="n">
-        <v>287</v>
-      </c>
-      <c r="D310" t="n">
-        <v>287</v>
-      </c>
-      <c r="E310" t="n">
-        <v>287</v>
-      </c>
-      <c r="F310" t="n">
-        <v>24.1949</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-525335.2958924803</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>286.9</v>
-      </c>
-      <c r="C311" t="n">
-        <v>286.9</v>
-      </c>
-      <c r="D311" t="n">
-        <v>286.9</v>
-      </c>
-      <c r="E311" t="n">
-        <v>286.9</v>
-      </c>
-      <c r="F311" t="n">
-        <v>12.1017</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-525347.3975924803</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="C312" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="D312" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="E312" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="F312" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-535347.3975924803</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="C313" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="D313" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="E313" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="F313" t="n">
-        <v>15.45201668</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-535331.9455758003</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>287.4</v>
-      </c>
-      <c r="C314" t="n">
-        <v>287.4</v>
-      </c>
-      <c r="D314" t="n">
-        <v>287.4</v>
-      </c>
-      <c r="E314" t="n">
-        <v>287.4</v>
-      </c>
-      <c r="F314" t="n">
-        <v>374.8673</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-535706.8128758003</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="C315" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="D315" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="E315" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="F315" t="n">
-        <v>1957.9737</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-537664.7865758003</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="C316" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="D316" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="E316" t="n">
-        <v>286.4</v>
-      </c>
-      <c r="F316" t="n">
-        <v>342.5074</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-537664.7865758003</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="C317" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="D317" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="E317" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="F317" t="n">
-        <v>1998.3</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-539663.0865758003</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="C318" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="D318" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="E318" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="F318" t="n">
-        <v>767.7</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-539663.0865758003</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="C319" t="n">
-        <v>287.3</v>
-      </c>
-      <c r="D319" t="n">
-        <v>287.3</v>
-      </c>
-      <c r="E319" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="F319" t="n">
-        <v>35234.3979</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-504428.6886758003</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11173,7 +10967,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>287.1</v>
+        <v>286.4</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11212,7 +11006,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>287.1</v>
+        <v>286.4</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11247,19 +11041,19 @@
         <v>-504362.6886758003</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>287.1</v>
+        <v>286.4</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L322" t="n">
-        <v>0.9977864855451061</v>
+        <v>1</v>
       </c>
       <c r="M322" t="inlineStr"/>
     </row>
@@ -11289,8 +11083,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11319,11 +11119,19 @@
         <v>-504362.6886758003</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="J324" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11352,11 +11160,19 @@
         <v>-508462.4651758003</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="J325" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11385,11 +11201,19 @@
         <v>-508787.2967758003</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="J326" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11418,11 +11242,19 @@
         <v>-508787.2967758003</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>287</v>
+      </c>
+      <c r="J327" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11451,11 +11283,19 @@
         <v>-508787.2967758003</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>287</v>
+      </c>
+      <c r="J328" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11484,11 +11324,19 @@
         <v>-507268.6912758003</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>287</v>
+      </c>
+      <c r="J329" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11517,11 +11365,19 @@
         <v>-505656.0687758003</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="J330" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11550,11 +11406,19 @@
         <v>-515793.5105758003</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>288</v>
+      </c>
+      <c r="J331" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11583,11 +11447,19 @@
         <v>-515493.5105758003</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>286</v>
+      </c>
+      <c r="J332" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11616,11 +11488,19 @@
         <v>-516006.8325758003</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="J333" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11649,11 +11529,19 @@
         <v>-516549.0309758003</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="J334" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11682,11 +11570,19 @@
         <v>-510289.0309758003</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="J335" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11715,11 +11611,19 @@
         <v>-509538.7168758003</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>288.1</v>
+      </c>
+      <c r="J336" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11748,11 +11652,19 @@
         <v>-507183.8051758003</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="J337" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11781,11 +11693,19 @@
         <v>-507183.8051758003</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="J338" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11814,11 +11734,19 @@
         <v>-504107.9369758003</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="J339" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11847,11 +11775,19 @@
         <v>-506582.9982117002</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>289</v>
+      </c>
+      <c r="J340" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11880,11 +11816,19 @@
         <v>-506582.9982117002</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="J341" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11913,11 +11857,19 @@
         <v>-506720.3894117002</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="J342" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11946,11 +11898,19 @@
         <v>-506720.3894117002</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="J343" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11979,11 +11939,19 @@
         <v>-506709.3894117002</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="J344" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12012,11 +11980,19 @@
         <v>-509064.5364117002</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="J345" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12045,11 +12021,19 @@
         <v>-510183.5506117002</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>288.7</v>
+      </c>
+      <c r="J346" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12078,11 +12062,19 @@
         <v>-512059.4102117002</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="J347" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12111,11 +12103,19 @@
         <v>-509249.8102117003</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="J348" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12144,11 +12144,19 @@
         <v>-509439.6351117003</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="J349" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12177,11 +12185,19 @@
         <v>-509190.4889117003</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="J350" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12210,11 +12226,19 @@
         <v>-516202.4711117003</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="J351" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12243,11 +12267,19 @@
         <v>-522855.4183117003</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="J352" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12276,11 +12308,19 @@
         <v>-534629.9193117003</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="J353" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12309,11 +12349,19 @@
         <v>-538427.2977117003</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="J354" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12342,11 +12390,19 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="J355" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12375,11 +12431,19 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="J356" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12408,11 +12472,19 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="J357" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12441,11 +12513,19 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="J358" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12474,11 +12554,19 @@
         <v>-531112.4071117003</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="J359" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12507,11 +12595,19 @@
         <v>-531110.4071117003</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="J360" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12540,11 +12636,19 @@
         <v>-533054.0330117003</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="J361" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12573,11 +12677,19 @@
         <v>-524928.5045117002</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>286.3</v>
+      </c>
+      <c r="J362" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12606,11 +12718,19 @@
         <v>-524928.5045117002</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="J363" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12639,11 +12759,19 @@
         <v>-524906.5045117002</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="J364" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12675,8 +12803,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12708,8 +12842,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12741,8 +12881,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12774,8 +12920,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12807,8 +12959,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12840,8 +12998,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12873,8 +13037,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12906,8 +13076,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12939,8 +13115,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12972,8 +13154,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13005,8 +13193,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13038,8 +13232,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13071,8 +13271,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13104,8 +13310,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
